--- a/LSTM-v1.1-1.xlsx
+++ b/LSTM-v1.1-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564E1D94-DFFF-427E-8D5F-EEBC97525F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D21A02-5DBA-455E-BA6B-15ACBADE8DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="468">
   <si>
     <t>SPY</t>
   </si>
@@ -34,941 +34,1403 @@
     <t>isCorrect</t>
   </si>
   <si>
-    <t>11/03/2024</t>
-  </si>
-  <si>
-    <t>12/03/2024</t>
-  </si>
-  <si>
-    <t>13/03/2024</t>
-  </si>
-  <si>
-    <t>14/03/2024</t>
-  </si>
-  <si>
-    <t>15/03/2024</t>
-  </si>
-  <si>
-    <t>18/03/2024</t>
-  </si>
-  <si>
-    <t>19/03/2024</t>
-  </si>
-  <si>
-    <t>20/03/2024</t>
-  </si>
-  <si>
-    <t>21/03/2024</t>
-  </si>
-  <si>
-    <t>22/03/2024</t>
-  </si>
-  <si>
-    <t>25/03/2024</t>
-  </si>
-  <si>
-    <t>26/03/2024</t>
-  </si>
-  <si>
-    <t>27/03/2024</t>
-  </si>
-  <si>
-    <t>28/03/2024</t>
-  </si>
-  <si>
-    <t>01/04/2024</t>
-  </si>
-  <si>
-    <t>02/04/2024</t>
-  </si>
-  <si>
-    <t>03/04/2024</t>
-  </si>
-  <si>
-    <t>04/04/2024</t>
-  </si>
-  <si>
-    <t>05/04/2024</t>
-  </si>
-  <si>
-    <t>08/04/2024</t>
-  </si>
-  <si>
-    <t>09/04/2024</t>
-  </si>
-  <si>
-    <t>10/04/2024</t>
-  </si>
-  <si>
-    <t>11/04/2024</t>
-  </si>
-  <si>
-    <t>12/04/2024</t>
-  </si>
-  <si>
-    <t>15/04/2024</t>
-  </si>
-  <si>
-    <t>16/04/2024</t>
-  </si>
-  <si>
-    <t>17/04/2024</t>
-  </si>
-  <si>
-    <t>18/04/2024</t>
-  </si>
-  <si>
-    <t>19/04/2024</t>
-  </si>
-  <si>
-    <t>22/04/2024</t>
-  </si>
-  <si>
-    <t>23/04/2024</t>
-  </si>
-  <si>
-    <t>24/04/2024</t>
-  </si>
-  <si>
-    <t>25/04/2024</t>
-  </si>
-  <si>
-    <t>26/04/2024</t>
-  </si>
-  <si>
-    <t>29/04/2024</t>
-  </si>
-  <si>
-    <t>30/04/2024</t>
-  </si>
-  <si>
-    <t>01/05/2024</t>
-  </si>
-  <si>
-    <t>02/05/2024</t>
-  </si>
-  <si>
-    <t>03/05/2024</t>
-  </si>
-  <si>
-    <t>06/05/2024</t>
-  </si>
-  <si>
-    <t>07/05/2024</t>
-  </si>
-  <si>
-    <t>08/05/2024</t>
-  </si>
-  <si>
-    <t>09/05/2024</t>
-  </si>
-  <si>
-    <t>10/05/2024</t>
-  </si>
-  <si>
-    <t>13/05/2024</t>
-  </si>
-  <si>
-    <t>14/05/2024</t>
-  </si>
-  <si>
-    <t>15/05/2024</t>
-  </si>
-  <si>
-    <t>16/05/2024</t>
-  </si>
-  <si>
-    <t>17/05/2024</t>
-  </si>
-  <si>
-    <t>20/05/2024</t>
-  </si>
-  <si>
-    <t>21/05/2024</t>
-  </si>
-  <si>
-    <t>22/05/2024</t>
-  </si>
-  <si>
-    <t>23/05/2024</t>
-  </si>
-  <si>
-    <t>24/05/2024</t>
-  </si>
-  <si>
-    <t>28/05/2024</t>
-  </si>
-  <si>
-    <t>29/05/2024</t>
-  </si>
-  <si>
-    <t>30/05/2024</t>
-  </si>
-  <si>
-    <t>31/05/2024</t>
-  </si>
-  <si>
-    <t>03/06/2024</t>
-  </si>
-  <si>
-    <t>04/06/2024</t>
-  </si>
-  <si>
-    <t>05/06/2024</t>
-  </si>
-  <si>
-    <t>06/06/2024</t>
-  </si>
-  <si>
-    <t>07/06/2024</t>
-  </si>
-  <si>
-    <t>10/06/2024</t>
-  </si>
-  <si>
-    <t>11/06/2024</t>
-  </si>
-  <si>
-    <t>12/06/2024</t>
-  </si>
-  <si>
-    <t>13/06/2024</t>
-  </si>
-  <si>
-    <t>14/06/2024</t>
-  </si>
-  <si>
-    <t>17/06/2024</t>
-  </si>
-  <si>
-    <t>18/06/2024</t>
-  </si>
-  <si>
-    <t>20/06/2024</t>
-  </si>
-  <si>
-    <t>21/06/2024</t>
-  </si>
-  <si>
-    <t>24/06/2024</t>
-  </si>
-  <si>
-    <t>25/06/2024</t>
-  </si>
-  <si>
-    <t>26/06/2024</t>
-  </si>
-  <si>
-    <t>27/06/2024</t>
-  </si>
-  <si>
-    <t>28/06/2024</t>
-  </si>
-  <si>
-    <t>01/07/2024</t>
-  </si>
-  <si>
-    <t>02/07/2024</t>
-  </si>
-  <si>
-    <t>03/07/2024</t>
-  </si>
-  <si>
-    <t>05/07/2024</t>
-  </si>
-  <si>
-    <t>08/07/2024</t>
-  </si>
-  <si>
-    <t>09/07/2024</t>
-  </si>
-  <si>
-    <t>10/07/2024</t>
-  </si>
-  <si>
-    <t>11/07/2024</t>
-  </si>
-  <si>
-    <t>12/07/2024</t>
-  </si>
-  <si>
-    <t>15/07/2024</t>
-  </si>
-  <si>
-    <t>16/07/2024</t>
-  </si>
-  <si>
-    <t>17/07/2024</t>
-  </si>
-  <si>
-    <t>18/07/2024</t>
-  </si>
-  <si>
-    <t>19/07/2024</t>
-  </si>
-  <si>
-    <t>22/07/2024</t>
-  </si>
-  <si>
-    <t>23/07/2024</t>
-  </si>
-  <si>
-    <t>24/07/2024</t>
-  </si>
-  <si>
-    <t>25/07/2024</t>
-  </si>
-  <si>
-    <t>26/07/2024</t>
-  </si>
-  <si>
-    <t>29/07/2024</t>
-  </si>
-  <si>
-    <t>30/07/2024</t>
-  </si>
-  <si>
-    <t>31/07/2024</t>
-  </si>
-  <si>
-    <t>01/08/2024</t>
-  </si>
-  <si>
-    <t>02/08/2024</t>
-  </si>
-  <si>
-    <t>05/08/2024</t>
-  </si>
-  <si>
-    <t>06/08/2024</t>
-  </si>
-  <si>
-    <t>07/08/2024</t>
-  </si>
-  <si>
-    <t>08/08/2024</t>
-  </si>
-  <si>
-    <t>09/08/2024</t>
-  </si>
-  <si>
-    <t>12/08/2024</t>
-  </si>
-  <si>
-    <t>13/08/2024</t>
-  </si>
-  <si>
-    <t>14/08/2024</t>
-  </si>
-  <si>
-    <t>15/08/2024</t>
-  </si>
-  <si>
-    <t>16/08/2024</t>
-  </si>
-  <si>
-    <t>19/08/2024</t>
-  </si>
-  <si>
-    <t>20/08/2024</t>
-  </si>
-  <si>
-    <t>21/08/2024</t>
-  </si>
-  <si>
-    <t>22/08/2024</t>
-  </si>
-  <si>
-    <t>23/08/2024</t>
-  </si>
-  <si>
-    <t>26/08/2024</t>
-  </si>
-  <si>
-    <t>27/08/2024</t>
-  </si>
-  <si>
-    <t>28/08/2024</t>
-  </si>
-  <si>
-    <t>29/08/2024</t>
-  </si>
-  <si>
-    <t>30/08/2024</t>
-  </si>
-  <si>
-    <t>03/09/2024</t>
-  </si>
-  <si>
-    <t>04/09/2024</t>
-  </si>
-  <si>
-    <t>05/09/2024</t>
-  </si>
-  <si>
-    <t>06/09/2024</t>
-  </si>
-  <si>
-    <t>09/09/2024</t>
-  </si>
-  <si>
-    <t>10/09/2024</t>
-  </si>
-  <si>
-    <t>11/09/2024</t>
-  </si>
-  <si>
-    <t>12/09/2024</t>
-  </si>
-  <si>
-    <t>13/09/2024</t>
-  </si>
-  <si>
-    <t>16/09/2024</t>
-  </si>
-  <si>
-    <t>17/09/2024</t>
-  </si>
-  <si>
-    <t>18/09/2024</t>
-  </si>
-  <si>
-    <t>19/09/2024</t>
-  </si>
-  <si>
-    <t>20/09/2024</t>
-  </si>
-  <si>
-    <t>23/09/2024</t>
-  </si>
-  <si>
-    <t>24/09/2024</t>
-  </si>
-  <si>
-    <t>25/09/2024</t>
-  </si>
-  <si>
-    <t>26/09/2024</t>
-  </si>
-  <si>
-    <t>27/09/2024</t>
-  </si>
-  <si>
-    <t>30/09/2024</t>
-  </si>
-  <si>
-    <t>01/10/2024</t>
-  </si>
-  <si>
-    <t>02/10/2024</t>
-  </si>
-  <si>
-    <t>03/10/2024</t>
-  </si>
-  <si>
-    <t>04/10/2024</t>
-  </si>
-  <si>
-    <t>07/10/2024</t>
-  </si>
-  <si>
-    <t>08/10/2024</t>
-  </si>
-  <si>
-    <t>09/10/2024</t>
-  </si>
-  <si>
-    <t>10/10/2024</t>
-  </si>
-  <si>
-    <t>11/10/2024</t>
-  </si>
-  <si>
-    <t>14/10/2024</t>
-  </si>
-  <si>
-    <t>15/10/2024</t>
-  </si>
-  <si>
-    <t>16/10/2024</t>
-  </si>
-  <si>
-    <t>17/10/2024</t>
-  </si>
-  <si>
-    <t>18/10/2024</t>
-  </si>
-  <si>
-    <t>21/10/2024</t>
-  </si>
-  <si>
-    <t>22/10/2024</t>
-  </si>
-  <si>
-    <t>23/10/2024</t>
-  </si>
-  <si>
-    <t>24/10/2024</t>
-  </si>
-  <si>
-    <t>25/10/2024</t>
-  </si>
-  <si>
-    <t>28/10/2024</t>
-  </si>
-  <si>
-    <t>29/10/2024</t>
-  </si>
-  <si>
-    <t>30/10/2024</t>
-  </si>
-  <si>
-    <t>31/10/2024</t>
-  </si>
-  <si>
-    <t>01/11/2024</t>
-  </si>
-  <si>
-    <t>04/11/2024</t>
-  </si>
-  <si>
-    <t>05/11/2024</t>
-  </si>
-  <si>
-    <t>06/11/2024</t>
-  </si>
-  <si>
-    <t>07/11/2024</t>
-  </si>
-  <si>
-    <t>08/11/2024</t>
-  </si>
-  <si>
-    <t>11/11/2024</t>
-  </si>
-  <si>
-    <t>12/11/2024</t>
-  </si>
-  <si>
-    <t>13/11/2024</t>
-  </si>
-  <si>
-    <t>14/11/2024</t>
-  </si>
-  <si>
-    <t>15/11/2024</t>
-  </si>
-  <si>
-    <t>18/11/2024</t>
-  </si>
-  <si>
-    <t>19/11/2024</t>
-  </si>
-  <si>
-    <t>20/11/2024</t>
-  </si>
-  <si>
-    <t>21/11/2024</t>
-  </si>
-  <si>
-    <t>22/11/2024</t>
-  </si>
-  <si>
-    <t>25/11/2024</t>
-  </si>
-  <si>
-    <t>26/11/2024</t>
-  </si>
-  <si>
-    <t>27/11/2024</t>
-  </si>
-  <si>
-    <t>29/11/2024</t>
-  </si>
-  <si>
-    <t>02/12/2024</t>
-  </si>
-  <si>
-    <t>03/12/2024</t>
-  </si>
-  <si>
-    <t>04/12/2024</t>
-  </si>
-  <si>
-    <t>05/12/2024</t>
-  </si>
-  <si>
-    <t>06/12/2024</t>
-  </si>
-  <si>
-    <t>09/12/2024</t>
-  </si>
-  <si>
-    <t>10/12/2024</t>
-  </si>
-  <si>
-    <t>11/12/2024</t>
-  </si>
-  <si>
-    <t>12/12/2024</t>
-  </si>
-  <si>
-    <t>13/12/2024</t>
-  </si>
-  <si>
-    <t>16/12/2024</t>
-  </si>
-  <si>
-    <t>17/12/2024</t>
-  </si>
-  <si>
-    <t>18/12/2024</t>
-  </si>
-  <si>
-    <t>19/12/2024</t>
-  </si>
-  <si>
-    <t>20/12/2024</t>
-  </si>
-  <si>
-    <t>23/12/2024</t>
-  </si>
-  <si>
-    <t>24/12/2024</t>
-  </si>
-  <si>
-    <t>26/12/2024</t>
-  </si>
-  <si>
-    <t>27/12/2024</t>
-  </si>
-  <si>
-    <t>30/12/2024</t>
-  </si>
-  <si>
-    <t>31/12/2024</t>
-  </si>
-  <si>
-    <t>02/01/2025</t>
-  </si>
-  <si>
-    <t>03/01/2025</t>
-  </si>
-  <si>
-    <t>06/01/2025</t>
-  </si>
-  <si>
-    <t>07/01/2025</t>
-  </si>
-  <si>
-    <t>08/01/2025</t>
-  </si>
-  <si>
-    <t>10/01/2025</t>
-  </si>
-  <si>
-    <t>13/01/2025</t>
-  </si>
-  <si>
-    <t>14/01/2025</t>
-  </si>
-  <si>
-    <t>15/01/2025</t>
-  </si>
-  <si>
-    <t>16/01/2025</t>
-  </si>
-  <si>
-    <t>17/01/2025</t>
-  </si>
-  <si>
-    <t>21/01/2025</t>
-  </si>
-  <si>
-    <t>22/01/2025</t>
-  </si>
-  <si>
-    <t>23/01/2025</t>
-  </si>
-  <si>
-    <t>24/01/2025</t>
-  </si>
-  <si>
-    <t>27/01/2025</t>
-  </si>
-  <si>
-    <t>28/01/2025</t>
-  </si>
-  <si>
-    <t>29/01/2025</t>
-  </si>
-  <si>
-    <t>30/01/2025</t>
-  </si>
-  <si>
-    <t>31/01/2025</t>
-  </si>
-  <si>
-    <t>03/02/2025</t>
-  </si>
-  <si>
-    <t>04/02/2025</t>
-  </si>
-  <si>
-    <t>05/02/2025</t>
-  </si>
-  <si>
-    <t>06/02/2025</t>
-  </si>
-  <si>
-    <t>07/02/2025</t>
-  </si>
-  <si>
-    <t>10/02/2025</t>
-  </si>
-  <si>
-    <t>11/02/2025</t>
-  </si>
-  <si>
-    <t>12/02/2025</t>
-  </si>
-  <si>
-    <t>13/02/2025</t>
-  </si>
-  <si>
-    <t>14/02/2025</t>
-  </si>
-  <si>
-    <t>18/02/2025</t>
-  </si>
-  <si>
-    <t>19/02/2025</t>
-  </si>
-  <si>
-    <t>20/02/2025</t>
-  </si>
-  <si>
-    <t>21/02/2025</t>
-  </si>
-  <si>
-    <t>24/02/2025</t>
-  </si>
-  <si>
-    <t>25/02/2025</t>
-  </si>
-  <si>
-    <t>26/02/2025</t>
-  </si>
-  <si>
-    <t>27/02/2025</t>
-  </si>
-  <si>
-    <t>28/02/2025</t>
-  </si>
-  <si>
-    <t>03/03/2025</t>
-  </si>
-  <si>
-    <t>04/03/2025</t>
-  </si>
-  <si>
-    <t>05/03/2025</t>
-  </si>
-  <si>
-    <t>06/03/2025</t>
-  </si>
-  <si>
-    <t>07/03/2025</t>
-  </si>
-  <si>
-    <t>10/03/2025</t>
-  </si>
-  <si>
-    <t>11/03/2025</t>
-  </si>
-  <si>
-    <t>12/03/2025</t>
-  </si>
-  <si>
-    <t>13/03/2025</t>
-  </si>
-  <si>
-    <t>14/03/2025</t>
-  </si>
-  <si>
-    <t>17/03/2025</t>
-  </si>
-  <si>
-    <t>18/03/2025</t>
-  </si>
-  <si>
-    <t>19/03/2025</t>
-  </si>
-  <si>
-    <t>20/03/2025</t>
-  </si>
-  <si>
-    <t>21/03/2025</t>
-  </si>
-  <si>
-    <t>24/03/2025</t>
-  </si>
-  <si>
-    <t>25/03/2025</t>
-  </si>
-  <si>
-    <t>26/03/2025</t>
-  </si>
-  <si>
-    <t>27/03/2025</t>
-  </si>
-  <si>
-    <t>28/03/2025</t>
-  </si>
-  <si>
-    <t>31/03/2025</t>
-  </si>
-  <si>
-    <t>01/04/2025</t>
-  </si>
-  <si>
-    <t>02/04/2025</t>
-  </si>
-  <si>
-    <t>03/04/2025</t>
-  </si>
-  <si>
-    <t>04/04/2025</t>
-  </si>
-  <si>
-    <t>07/04/2025</t>
-  </si>
-  <si>
-    <t>08/04/2025</t>
-  </si>
-  <si>
-    <t>09/04/2025</t>
-  </si>
-  <si>
-    <t>10/04/2025</t>
-  </si>
-  <si>
-    <t>11/04/2025</t>
-  </si>
-  <si>
-    <t>14/04/2025</t>
-  </si>
-  <si>
-    <t>15/04/2025</t>
-  </si>
-  <si>
-    <t>16/04/2025</t>
-  </si>
-  <si>
-    <t>17/04/2025</t>
-  </si>
-  <si>
-    <t>21/04/2025</t>
-  </si>
-  <si>
-    <t>22/04/2025</t>
-  </si>
-  <si>
-    <t>23/04/2025</t>
-  </si>
-  <si>
-    <t>24/04/2025</t>
-  </si>
-  <si>
-    <t>25/04/2025</t>
-  </si>
-  <si>
-    <t>28/04/2025</t>
-  </si>
-  <si>
-    <t>29/04/2025</t>
-  </si>
-  <si>
-    <t>30/04/2025</t>
-  </si>
-  <si>
-    <t>01/05/2025</t>
-  </si>
-  <si>
-    <t>02/05/2025</t>
-  </si>
-  <si>
-    <t>05/05/2025</t>
-  </si>
-  <si>
-    <t>06/05/2025</t>
-  </si>
-  <si>
-    <t>07/05/2025</t>
-  </si>
-  <si>
-    <t>08/05/2025</t>
-  </si>
-  <si>
-    <t>09/05/2025</t>
-  </si>
-  <si>
-    <t>12/05/2025</t>
-  </si>
-  <si>
-    <t>13/05/2025</t>
-  </si>
-  <si>
-    <t>14/05/2025</t>
-  </si>
-  <si>
-    <t>15/05/2025</t>
-  </si>
-  <si>
-    <t>16/05/2025</t>
-  </si>
-  <si>
-    <t>19/05/2025</t>
-  </si>
-  <si>
-    <t>20/05/2025</t>
-  </si>
-  <si>
-    <t>21/05/2025</t>
-  </si>
-  <si>
-    <t>22/05/2025</t>
-  </si>
-  <si>
-    <t>23/05/2025</t>
-  </si>
-  <si>
-    <t>27/05/2025</t>
-  </si>
-  <si>
-    <t>28/05/2025</t>
-  </si>
-  <si>
-    <t>29/05/2025</t>
-  </si>
-  <si>
-    <t>30/05/2025</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
     <t>toggle_false</t>
+  </si>
+  <si>
+    <t>2023-09-28</t>
+  </si>
+  <si>
+    <t>2023-09-29</t>
+  </si>
+  <si>
+    <t>2023-10-02</t>
+  </si>
+  <si>
+    <t>2023-10-03</t>
+  </si>
+  <si>
+    <t>2023-10-04</t>
+  </si>
+  <si>
+    <t>2023-10-05</t>
+  </si>
+  <si>
+    <t>2023-10-06</t>
+  </si>
+  <si>
+    <t>2023-10-09</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
+    <t>2023-10-12</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>2023-10-17</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2023-10-25</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2023-10-30</t>
+  </si>
+  <si>
+    <t>2023-10-31</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
+    <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-14</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
+    <t>2023-11-29</t>
+  </si>
+  <si>
+    <t>2023-11-30</t>
+  </si>
+  <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
+    <t>2023-12-04</t>
+  </si>
+  <si>
+    <t>2023-12-05</t>
+  </si>
+  <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
+    <t>2023-12-07</t>
+  </si>
+  <si>
+    <t>2023-12-08</t>
+  </si>
+  <si>
+    <t>2023-12-11</t>
+  </si>
+  <si>
+    <t>2023-12-12</t>
+  </si>
+  <si>
+    <t>2023-12-13</t>
+  </si>
+  <si>
+    <t>2023-12-14</t>
+  </si>
+  <si>
+    <t>2023-12-15</t>
+  </si>
+  <si>
+    <t>2023-12-18</t>
+  </si>
+  <si>
+    <t>2023-12-19</t>
+  </si>
+  <si>
+    <t>2023-12-20</t>
+  </si>
+  <si>
+    <t>2023-12-21</t>
+  </si>
+  <si>
+    <t>2023-12-22</t>
+  </si>
+  <si>
+    <t>2023-12-26</t>
+  </si>
+  <si>
+    <t>2023-12-27</t>
+  </si>
+  <si>
+    <t>2023-12-28</t>
+  </si>
+  <si>
+    <t>2023-12-29</t>
+  </si>
+  <si>
+    <t>2024-01-02</t>
+  </si>
+  <si>
+    <t>2024-01-03</t>
+  </si>
+  <si>
+    <t>2024-01-04</t>
+  </si>
+  <si>
+    <t>2024-01-05</t>
+  </si>
+  <si>
+    <t>2024-01-08</t>
+  </si>
+  <si>
+    <t>2024-01-09</t>
+  </si>
+  <si>
+    <t>2024-01-10</t>
+  </si>
+  <si>
+    <t>2024-01-11</t>
+  </si>
+  <si>
+    <t>2024-01-12</t>
+  </si>
+  <si>
+    <t>2024-01-16</t>
+  </si>
+  <si>
+    <t>2024-01-17</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>2024-01-19</t>
+  </si>
+  <si>
+    <t>2024-01-22</t>
+  </si>
+  <si>
+    <t>2024-01-23</t>
+  </si>
+  <si>
+    <t>2024-01-24</t>
+  </si>
+  <si>
+    <t>2024-01-25</t>
+  </si>
+  <si>
+    <t>2024-01-26</t>
+  </si>
+  <si>
+    <t>2024-01-29</t>
+  </si>
+  <si>
+    <t>2024-01-30</t>
+  </si>
+  <si>
+    <t>2024-01-31</t>
+  </si>
+  <si>
+    <t>2024-02-01</t>
+  </si>
+  <si>
+    <t>2024-02-02</t>
+  </si>
+  <si>
+    <t>2024-02-05</t>
+  </si>
+  <si>
+    <t>2024-02-06</t>
+  </si>
+  <si>
+    <t>2024-02-07</t>
+  </si>
+  <si>
+    <t>2024-02-08</t>
+  </si>
+  <si>
+    <t>2024-02-09</t>
+  </si>
+  <si>
+    <t>2024-02-12</t>
+  </si>
+  <si>
+    <t>2024-02-13</t>
+  </si>
+  <si>
+    <t>2024-02-14</t>
+  </si>
+  <si>
+    <t>2024-02-15</t>
+  </si>
+  <si>
+    <t>2024-02-16</t>
+  </si>
+  <si>
+    <t>2024-02-20</t>
+  </si>
+  <si>
+    <t>2024-02-21</t>
+  </si>
+  <si>
+    <t>2024-02-22</t>
+  </si>
+  <si>
+    <t>2024-02-23</t>
+  </si>
+  <si>
+    <t>2024-02-26</t>
+  </si>
+  <si>
+    <t>2024-02-27</t>
+  </si>
+  <si>
+    <t>2024-02-28</t>
+  </si>
+  <si>
+    <t>2024-02-29</t>
+  </si>
+  <si>
+    <t>2024-03-01</t>
+  </si>
+  <si>
+    <t>2024-03-04</t>
+  </si>
+  <si>
+    <t>2024-03-05</t>
+  </si>
+  <si>
+    <t>2024-03-06</t>
+  </si>
+  <si>
+    <t>2024-03-07</t>
+  </si>
+  <si>
+    <t>2024-03-08</t>
+  </si>
+  <si>
+    <t>2024-03-11</t>
+  </si>
+  <si>
+    <t>2024-03-12</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>2024-03-14</t>
+  </si>
+  <si>
+    <t>2024-03-15</t>
+  </si>
+  <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
+    <t>2024-03-19</t>
+  </si>
+  <si>
+    <t>2024-03-20</t>
+  </si>
+  <si>
+    <t>2024-03-21</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
+  </si>
+  <si>
+    <t>2024-03-26</t>
+  </si>
+  <si>
+    <t>2024-03-27</t>
+  </si>
+  <si>
+    <t>2024-03-28</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>2024-04-02</t>
+  </si>
+  <si>
+    <t>2024-04-03</t>
+  </si>
+  <si>
+    <t>2024-04-04</t>
+  </si>
+  <si>
+    <t>2024-04-05</t>
+  </si>
+  <si>
+    <t>2024-04-08</t>
+  </si>
+  <si>
+    <t>2024-04-09</t>
+  </si>
+  <si>
+    <t>2024-04-10</t>
+  </si>
+  <si>
+    <t>2024-04-11</t>
+  </si>
+  <si>
+    <t>2024-04-12</t>
+  </si>
+  <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
+  </si>
+  <si>
+    <t>2024-04-17</t>
+  </si>
+  <si>
+    <t>2024-04-18</t>
+  </si>
+  <si>
+    <t>2024-04-19</t>
+  </si>
+  <si>
+    <t>2024-04-22</t>
+  </si>
+  <si>
+    <t>2024-04-23</t>
+  </si>
+  <si>
+    <t>2024-04-24</t>
+  </si>
+  <si>
+    <t>2024-04-25</t>
+  </si>
+  <si>
+    <t>2024-04-26</t>
+  </si>
+  <si>
+    <t>2024-04-29</t>
+  </si>
+  <si>
+    <t>2024-04-30</t>
+  </si>
+  <si>
+    <t>2024-05-01</t>
+  </si>
+  <si>
+    <t>2024-05-02</t>
+  </si>
+  <si>
+    <t>2024-05-03</t>
+  </si>
+  <si>
+    <t>2024-05-06</t>
+  </si>
+  <si>
+    <t>2024-05-07</t>
+  </si>
+  <si>
+    <t>2024-05-08</t>
+  </si>
+  <si>
+    <t>2024-05-09</t>
+  </si>
+  <si>
+    <t>2024-05-10</t>
+  </si>
+  <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
+    <t>2024-05-14</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>2024-05-16</t>
+  </si>
+  <si>
+    <t>2024-05-17</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>2024-05-21</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>2024-05-23</t>
+  </si>
+  <si>
+    <t>2024-05-24</t>
+  </si>
+  <si>
+    <t>2024-05-28</t>
+  </si>
+  <si>
+    <t>2024-05-29</t>
+  </si>
+  <si>
+    <t>2024-05-30</t>
+  </si>
+  <si>
+    <t>2024-05-31</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>2024-06-04</t>
+  </si>
+  <si>
+    <t>2024-06-05</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>2024-06-07</t>
+  </si>
+  <si>
+    <t>2024-06-10</t>
+  </si>
+  <si>
+    <t>2024-06-11</t>
+  </si>
+  <si>
+    <t>2024-06-12</t>
+  </si>
+  <si>
+    <t>2024-06-13</t>
+  </si>
+  <si>
+    <t>2024-06-14</t>
+  </si>
+  <si>
+    <t>2024-06-17</t>
+  </si>
+  <si>
+    <t>2024-06-18</t>
+  </si>
+  <si>
+    <t>2024-06-20</t>
+  </si>
+  <si>
+    <t>2024-06-21</t>
+  </si>
+  <si>
+    <t>2024-06-24</t>
+  </si>
+  <si>
+    <t>2024-06-25</t>
+  </si>
+  <si>
+    <t>2024-06-26</t>
+  </si>
+  <si>
+    <t>2024-06-27</t>
+  </si>
+  <si>
+    <t>2024-06-28</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>2024-07-02</t>
+  </si>
+  <si>
+    <t>2024-07-03</t>
+  </si>
+  <si>
+    <t>2024-07-05</t>
+  </si>
+  <si>
+    <t>2024-07-08</t>
+  </si>
+  <si>
+    <t>2024-07-09</t>
+  </si>
+  <si>
+    <t>2024-07-10</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
+    <t>2024-07-16</t>
+  </si>
+  <si>
+    <t>2024-07-17</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>2024-07-19</t>
+  </si>
+  <si>
+    <t>2024-07-22</t>
+  </si>
+  <si>
+    <t>2024-07-23</t>
+  </si>
+  <si>
+    <t>2024-07-24</t>
+  </si>
+  <si>
+    <t>2024-07-25</t>
+  </si>
+  <si>
+    <t>2024-07-26</t>
+  </si>
+  <si>
+    <t>2024-07-29</t>
+  </si>
+  <si>
+    <t>2024-07-30</t>
+  </si>
+  <si>
+    <t>2024-07-31</t>
+  </si>
+  <si>
+    <t>2024-08-01</t>
+  </si>
+  <si>
+    <t>2024-08-02</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>2024-08-06</t>
+  </si>
+  <si>
+    <t>2024-08-07</t>
+  </si>
+  <si>
+    <t>2024-08-08</t>
+  </si>
+  <si>
+    <t>2024-08-09</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>2024-08-14</t>
+  </si>
+  <si>
+    <t>2024-08-15</t>
+  </si>
+  <si>
+    <t>2024-08-16</t>
+  </si>
+  <si>
+    <t>2024-08-19</t>
+  </si>
+  <si>
+    <t>2024-08-20</t>
+  </si>
+  <si>
+    <t>2024-08-21</t>
+  </si>
+  <si>
+    <t>2024-08-22</t>
+  </si>
+  <si>
+    <t>2024-08-23</t>
+  </si>
+  <si>
+    <t>2024-08-26</t>
+  </si>
+  <si>
+    <t>2024-08-27</t>
+  </si>
+  <si>
+    <t>2024-08-28</t>
+  </si>
+  <si>
+    <t>2024-08-29</t>
+  </si>
+  <si>
+    <t>2024-08-30</t>
+  </si>
+  <si>
+    <t>2024-09-03</t>
+  </si>
+  <si>
+    <t>2024-09-04</t>
+  </si>
+  <si>
+    <t>2024-09-05</t>
+  </si>
+  <si>
+    <t>2024-09-06</t>
+  </si>
+  <si>
+    <t>2024-09-09</t>
+  </si>
+  <si>
+    <t>2024-09-10</t>
+  </si>
+  <si>
+    <t>2024-09-11</t>
+  </si>
+  <si>
+    <t>2024-09-12</t>
+  </si>
+  <si>
+    <t>2024-09-13</t>
+  </si>
+  <si>
+    <t>2024-09-16</t>
+  </si>
+  <si>
+    <t>2024-09-17</t>
+  </si>
+  <si>
+    <t>2024-09-18</t>
+  </si>
+  <si>
+    <t>2024-09-19</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>2024-09-24</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>2024-09-26</t>
+  </si>
+  <si>
+    <t>2024-09-27</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>2024-10-02</t>
+  </si>
+  <si>
+    <t>2024-10-03</t>
+  </si>
+  <si>
+    <t>2024-10-04</t>
+  </si>
+  <si>
+    <t>2024-10-07</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>2024-10-09</t>
+  </si>
+  <si>
+    <t>2024-10-10</t>
+  </si>
+  <si>
+    <t>2024-10-11</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>2024-10-15</t>
+  </si>
+  <si>
+    <t>2024-10-16</t>
+  </si>
+  <si>
+    <t>2024-10-17</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>2024-10-22</t>
+  </si>
+  <si>
+    <t>2024-10-23</t>
+  </si>
+  <si>
+    <t>2024-10-24</t>
+  </si>
+  <si>
+    <t>2024-10-25</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
+  </si>
+  <si>
+    <t>2024-10-29</t>
+  </si>
+  <si>
+    <t>2024-10-30</t>
+  </si>
+  <si>
+    <t>2024-10-31</t>
+  </si>
+  <si>
+    <t>2024-11-01</t>
+  </si>
+  <si>
+    <t>2024-11-04</t>
+  </si>
+  <si>
+    <t>2024-11-05</t>
+  </si>
+  <si>
+    <t>2024-11-06</t>
+  </si>
+  <si>
+    <t>2024-11-07</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>2024-11-11</t>
+  </si>
+  <si>
+    <t>2024-11-12</t>
+  </si>
+  <si>
+    <t>2024-11-13</t>
+  </si>
+  <si>
+    <t>2024-11-14</t>
+  </si>
+  <si>
+    <t>2024-11-15</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>2024-11-19</t>
+  </si>
+  <si>
+    <t>2024-11-20</t>
+  </si>
+  <si>
+    <t>2024-11-21</t>
+  </si>
+  <si>
+    <t>2024-11-22</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>2024-11-26</t>
+  </si>
+  <si>
+    <t>2024-11-27</t>
+  </si>
+  <si>
+    <t>2024-11-29</t>
+  </si>
+  <si>
+    <t>2024-12-02</t>
+  </si>
+  <si>
+    <t>2024-12-03</t>
+  </si>
+  <si>
+    <t>2024-12-04</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>2024-12-06</t>
+  </si>
+  <si>
+    <t>2024-12-09</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>2024-12-12</t>
+  </si>
+  <si>
+    <t>2024-12-13</t>
+  </si>
+  <si>
+    <t>2024-12-16</t>
+  </si>
+  <si>
+    <t>2024-12-17</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>2024-12-19</t>
+  </si>
+  <si>
+    <t>2024-12-20</t>
+  </si>
+  <si>
+    <t>2024-12-23</t>
+  </si>
+  <si>
+    <t>2024-12-24</t>
+  </si>
+  <si>
+    <t>2024-12-26</t>
+  </si>
+  <si>
+    <t>2024-12-27</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>2024-12-31</t>
+  </si>
+  <si>
+    <t>2025-01-02</t>
+  </si>
+  <si>
+    <t>2025-01-03</t>
+  </si>
+  <si>
+    <t>2025-01-06</t>
+  </si>
+  <si>
+    <t>2025-01-07</t>
+  </si>
+  <si>
+    <t>2025-01-08</t>
+  </si>
+  <si>
+    <t>2025-01-10</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>2025-01-14</t>
+  </si>
+  <si>
+    <t>2025-01-15</t>
+  </si>
+  <si>
+    <t>2025-01-16</t>
+  </si>
+  <si>
+    <t>2025-01-17</t>
+  </si>
+  <si>
+    <t>2025-01-21</t>
+  </si>
+  <si>
+    <t>2025-01-22</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>2025-01-27</t>
+  </si>
+  <si>
+    <t>2025-01-28</t>
+  </si>
+  <si>
+    <t>2025-01-29</t>
+  </si>
+  <si>
+    <t>2025-01-30</t>
+  </si>
+  <si>
+    <t>2025-01-31</t>
+  </si>
+  <si>
+    <t>2025-02-03</t>
+  </si>
+  <si>
+    <t>2025-02-04</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>2025-02-06</t>
+  </si>
+  <si>
+    <t>2025-02-07</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>2025-02-11</t>
+  </si>
+  <si>
+    <t>2025-02-12</t>
+  </si>
+  <si>
+    <t>2025-02-13</t>
+  </si>
+  <si>
+    <t>2025-02-14</t>
+  </si>
+  <si>
+    <t>2025-02-18</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>2025-02-20</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>2025-02-24</t>
+  </si>
+  <si>
+    <t>2025-02-25</t>
+  </si>
+  <si>
+    <t>2025-02-26</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>2025-03-04</t>
+  </si>
+  <si>
+    <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>2025-03-06</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>2025-03-11</t>
+  </si>
+  <si>
+    <t>2025-03-12</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>2025-03-14</t>
+  </si>
+  <si>
+    <t>2025-03-17</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>2025-03-20</t>
+  </si>
+  <si>
+    <t>2025-03-21</t>
+  </si>
+  <si>
+    <t>2025-03-24</t>
+  </si>
+  <si>
+    <t>2025-03-25</t>
+  </si>
+  <si>
+    <t>2025-03-26</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>2025-04-02</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
+    <t>2025-04-14</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-16</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>2025-04-22</t>
+  </si>
+  <si>
+    <t>2025-04-23</t>
+  </si>
+  <si>
+    <t>2025-04-24</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>2025-04-28</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>2025-05-02</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>2025-05-06</t>
+  </si>
+  <si>
+    <t>2025-05-07</t>
+  </si>
+  <si>
+    <t>2025-05-08</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>2025-05-13</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-16</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>2025-05-20</t>
+  </si>
+  <si>
+    <t>2025-05-21</t>
+  </si>
+  <si>
+    <t>2025-05-22</t>
+  </si>
+  <si>
+    <t>2025-05-23</t>
+  </si>
+  <si>
+    <t>2025-05-27</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>2025-06-03</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>2025-06-06</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>2025-06-10</t>
+  </si>
+  <si>
+    <t>2025-06-11</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>2025-06-13</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>2025-06-17</t>
+  </si>
+  <si>
+    <t>2025-06-18</t>
+  </si>
+  <si>
+    <t>2025-06-20</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>2025-06-24</t>
+  </si>
+  <si>
+    <t>2025-06-25</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>2025-06-27</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>2025-07-02</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>2025-07-07</t>
+  </si>
+  <si>
+    <t>2025-07-08</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>2025-07-14</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-16</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>2025-07-18</t>
+  </si>
+  <si>
+    <t>2025-07-21</t>
+  </si>
+  <si>
+    <t>2025-07-22</t>
+  </si>
+  <si>
+    <t>2025-07-23</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>2025-07-25</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>2025-07-29</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-07-31</t>
+  </si>
+  <si>
+    <t>2025-08-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -980,6 +1442,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -989,7 +1459,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -997,15 +1467,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1312,18 +1798,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="A456" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D468" sqref="D468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>311</v>
+      <c r="A1" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1332,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1342,8 +1829,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>45197</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
         <v>417.72415160000003</v>
@@ -1362,8 +1849,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>45198</v>
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
         <v>416.71035769999997</v>
@@ -1382,8 +1869,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>45201</v>
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
         <v>416.54461670000001</v>
@@ -1402,8 +1889,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>45202</v>
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
         <v>410.96875</v>
@@ -1422,8 +1909,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>45203</v>
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
         <v>413.96136469999999</v>
@@ -1442,8 +1929,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>45204</v>
+      <c r="A7" t="s">
+        <v>11</v>
       </c>
       <c r="B7">
         <v>413.80538940000002</v>
@@ -1462,8 +1949,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>45205</v>
+      <c r="A8" t="s">
+        <v>12</v>
       </c>
       <c r="B8">
         <v>418.71844479999999</v>
@@ -1482,8 +1969,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>45208</v>
+      <c r="A9" t="s">
+        <v>13</v>
       </c>
       <c r="B9">
         <v>421.3991699</v>
@@ -1502,8 +1989,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>45209</v>
+      <c r="A10" t="s">
+        <v>14</v>
       </c>
       <c r="B10">
         <v>423.59246830000001</v>
@@ -1522,8 +2009,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>45210</v>
+      <c r="A11" t="s">
+        <v>15</v>
       </c>
       <c r="B11">
         <v>425.32763670000003</v>
@@ -1542,8 +2029,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>45211</v>
+      <c r="A12" t="s">
+        <v>16</v>
       </c>
       <c r="B12">
         <v>422.73471069999999</v>
@@ -1562,8 +2049,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>45212</v>
+      <c r="A13" t="s">
+        <v>17</v>
       </c>
       <c r="B13">
         <v>420.6290588</v>
@@ -1582,8 +2069,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>45215</v>
+      <c r="A14" t="s">
+        <v>18</v>
       </c>
       <c r="B14">
         <v>425.05471799999998</v>
@@ -1602,8 +2089,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>45216</v>
+      <c r="A15" t="s">
+        <v>19</v>
       </c>
       <c r="B15">
         <v>425.0352173</v>
@@ -1622,8 +2109,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>45217</v>
+      <c r="A16" t="s">
+        <v>20</v>
       </c>
       <c r="B16">
         <v>419.37158199999999</v>
@@ -1642,8 +2129,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>45218</v>
+      <c r="A17" t="s">
+        <v>21</v>
       </c>
       <c r="B17">
         <v>415.6867676</v>
@@ -1662,8 +2149,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>45219</v>
+      <c r="A18" t="s">
+        <v>22</v>
       </c>
       <c r="B18">
         <v>410.57879639999999</v>
@@ -1682,8 +2169,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>45222</v>
+      <c r="A19" t="s">
+        <v>23</v>
       </c>
       <c r="B19">
         <v>409.86715700000002</v>
@@ -1702,8 +2189,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>45223</v>
+      <c r="A20" t="s">
+        <v>24</v>
       </c>
       <c r="B20">
         <v>412.95730589999999</v>
@@ -1722,8 +2209,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>45224</v>
+      <c r="A21" t="s">
+        <v>25</v>
       </c>
       <c r="B21">
         <v>407.03054809999998</v>
@@ -1742,8 +2229,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>45225</v>
+      <c r="A22" t="s">
+        <v>26</v>
       </c>
       <c r="B22">
         <v>402.15640259999998</v>
@@ -1762,8 +2249,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>45226</v>
+      <c r="A23" t="s">
+        <v>27</v>
       </c>
       <c r="B23">
         <v>400.33358759999999</v>
@@ -1782,8 +2269,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>45229</v>
+      <c r="A24" t="s">
+        <v>28</v>
       </c>
       <c r="B24">
         <v>405.1198425</v>
@@ -1802,8 +2289,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>45230</v>
+      <c r="A25" t="s">
+        <v>29</v>
       </c>
       <c r="B25">
         <v>407.66415410000002</v>
@@ -1822,8 +2309,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>45231</v>
+      <c r="A26" t="s">
+        <v>30</v>
       </c>
       <c r="B26">
         <v>412.01181029999998</v>
@@ -1842,8 +2329,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>45232</v>
+      <c r="A27" t="s">
+        <v>31</v>
       </c>
       <c r="B27">
         <v>419.90774540000001</v>
@@ -1862,8 +2349,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>45233</v>
+      <c r="A28" t="s">
+        <v>32</v>
       </c>
       <c r="B28">
         <v>423.73870849999997</v>
@@ -1882,8 +2369,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>45236</v>
+      <c r="A29" t="s">
+        <v>33</v>
       </c>
       <c r="B29">
         <v>424.71347050000003</v>
@@ -1902,8 +2389,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>45237</v>
+      <c r="A30" t="s">
+        <v>34</v>
       </c>
       <c r="B30">
         <v>425.92224119999997</v>
@@ -1922,8 +2409,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>45238</v>
+      <c r="A31" t="s">
+        <v>35</v>
       </c>
       <c r="B31">
         <v>426.23419189999998</v>
@@ -1942,8 +2429,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>45239</v>
+      <c r="A32" t="s">
+        <v>36</v>
       </c>
       <c r="B32">
         <v>422.91012569999998</v>
@@ -1962,8 +2449,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>45240</v>
+      <c r="A33" t="s">
+        <v>37</v>
       </c>
       <c r="B33">
         <v>429.50952150000001</v>
@@ -1982,8 +2469,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>45243</v>
+      <c r="A34" t="s">
+        <v>38</v>
       </c>
       <c r="B34">
         <v>429.10015870000001</v>
@@ -2002,8 +2489,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>45244</v>
+      <c r="A35" t="s">
+        <v>39</v>
       </c>
       <c r="B35">
         <v>437.4249878</v>
@@ -2022,8 +2509,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>45245</v>
+      <c r="A36" t="s">
+        <v>40</v>
       </c>
       <c r="B36">
         <v>438.35104369999999</v>
@@ -2042,8 +2529,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>45246</v>
+      <c r="A37" t="s">
+        <v>41</v>
       </c>
       <c r="B37">
         <v>438.88720699999999</v>
@@ -2062,8 +2549,8 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>45247</v>
+      <c r="A38" t="s">
+        <v>42</v>
       </c>
       <c r="B38">
         <v>439.43313599999999</v>
@@ -2082,8 +2569,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>45250</v>
+      <c r="A39" t="s">
+        <v>43</v>
       </c>
       <c r="B39">
         <v>442.81567380000001</v>
@@ -2102,8 +2589,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>45251</v>
+      <c r="A40" t="s">
+        <v>44</v>
       </c>
       <c r="B40">
         <v>441.8505859</v>
@@ -2122,8 +2609,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>45252</v>
+      <c r="A41" t="s">
+        <v>45</v>
       </c>
       <c r="B41">
         <v>443.55645750000002</v>
@@ -2142,8 +2629,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>45254</v>
+      <c r="A42" t="s">
+        <v>46</v>
       </c>
       <c r="B42">
         <v>443.82940669999999</v>
@@ -2162,8 +2649,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>45257</v>
+      <c r="A43" t="s">
+        <v>47</v>
       </c>
       <c r="B43">
         <v>443.03012080000002</v>
@@ -2182,8 +2669,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>45258</v>
+      <c r="A44" t="s">
+        <v>48</v>
       </c>
       <c r="B44">
         <v>443.46881100000002</v>
@@ -2202,8 +2689,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>45259</v>
+      <c r="A45" t="s">
+        <v>49</v>
       </c>
       <c r="B45">
         <v>443.15686040000003</v>
@@ -2222,8 +2709,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>45260</v>
+      <c r="A46" t="s">
+        <v>50</v>
       </c>
       <c r="B46">
         <v>444.90170289999998</v>
@@ -2242,8 +2729,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
-        <v>45261</v>
+      <c r="A47" t="s">
+        <v>51</v>
       </c>
       <c r="B47">
         <v>447.53372189999999</v>
@@ -2262,8 +2749,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>45264</v>
+      <c r="A48" t="s">
+        <v>52</v>
       </c>
       <c r="B48">
         <v>445.18441769999998</v>
@@ -2282,8 +2769,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>45265</v>
+      <c r="A49" t="s">
+        <v>53</v>
       </c>
       <c r="B49">
         <v>445.09667969999998</v>
@@ -2302,8 +2789,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>45266</v>
+      <c r="A50" t="s">
+        <v>54</v>
       </c>
       <c r="B50">
         <v>443.30307010000001</v>
@@ -2322,8 +2809,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
-        <v>45267</v>
+      <c r="A51" t="s">
+        <v>55</v>
       </c>
       <c r="B51">
         <v>446.6856689</v>
@@ -2342,8 +2829,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>45268</v>
+      <c r="A52" t="s">
+        <v>56</v>
       </c>
       <c r="B52">
         <v>448.60601810000003</v>
@@ -2362,8 +2849,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
-        <v>45271</v>
+      <c r="A53" t="s">
+        <v>57</v>
       </c>
       <c r="B53">
         <v>450.35089110000001</v>
@@ -2382,8 +2869,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
-        <v>45272</v>
+      <c r="A54" t="s">
+        <v>58</v>
       </c>
       <c r="B54">
         <v>452.40777589999999</v>
@@ -2402,8 +2889,8 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
-        <v>45273</v>
+      <c r="A55" t="s">
+        <v>59</v>
       </c>
       <c r="B55">
         <v>458.6465149</v>
@@ -2422,8 +2909,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
-        <v>45274</v>
+      <c r="A56" t="s">
+        <v>60</v>
       </c>
       <c r="B56">
         <v>460.11846919999999</v>
@@ -2442,8 +2929,8 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
-        <v>45275</v>
+      <c r="A57" t="s">
+        <v>61</v>
       </c>
       <c r="B57">
         <v>459.36087040000001</v>
@@ -2462,8 +2949,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
-        <v>45278</v>
+      <c r="A58" t="s">
+        <v>62</v>
       </c>
       <c r="B58">
         <v>461.94485470000001</v>
@@ -2482,8 +2969,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
-        <v>45279</v>
+      <c r="A59" t="s">
+        <v>63</v>
       </c>
       <c r="B59">
         <v>464.75387569999998</v>
@@ -2502,8 +2989,8 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
-        <v>45280</v>
+      <c r="A60" t="s">
+        <v>64</v>
       </c>
       <c r="B60">
         <v>458.31365970000002</v>
@@ -2522,8 +3009,8 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
-        <v>45281</v>
+      <c r="A61" t="s">
+        <v>65</v>
       </c>
       <c r="B61">
         <v>462.6593628</v>
@@ -2542,8 +3029,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
-        <v>45282</v>
+      <c r="A62" t="s">
+        <v>66</v>
       </c>
       <c r="B62">
         <v>463.58914179999999</v>
@@ -2562,8 +3049,8 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
-        <v>45286</v>
+      <c r="A63" t="s">
+        <v>67</v>
       </c>
       <c r="B63">
         <v>465.5466614</v>
@@ -2582,8 +3069,8 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
-        <v>45287</v>
+      <c r="A64" t="s">
+        <v>68</v>
       </c>
       <c r="B64">
         <v>466.38842770000002</v>
@@ -2602,8 +3089,8 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
-        <v>45288</v>
+      <c r="A65" t="s">
+        <v>69</v>
       </c>
       <c r="B65">
         <v>466.56460570000002</v>
@@ -2622,8 +3109,8 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>45289</v>
+      <c r="A66" t="s">
+        <v>70</v>
       </c>
       <c r="B66">
         <v>465.21389770000002</v>
@@ -2642,8 +3129,8 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
-        <v>45293</v>
+      <c r="A67" t="s">
+        <v>71</v>
       </c>
       <c r="B67">
         <v>462.61041260000002</v>
@@ -2662,8 +3149,8 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
-        <v>45294</v>
+      <c r="A68" t="s">
+        <v>72</v>
       </c>
       <c r="B68">
         <v>458.83236690000001</v>
@@ -2682,8 +3169,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
-        <v>45295</v>
+      <c r="A69" t="s">
+        <v>73</v>
       </c>
       <c r="B69">
         <v>457.3544617</v>
@@ -2702,8 +3189,8 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
-        <v>45296</v>
+      <c r="A70" t="s">
+        <v>74</v>
       </c>
       <c r="B70">
         <v>457.98089599999997</v>
@@ -2722,8 +3209,8 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
-        <v>45299</v>
+      <c r="A71" t="s">
+        <v>75</v>
       </c>
       <c r="B71">
         <v>464.51895139999999</v>
@@ -2742,8 +3229,8 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
-        <v>45300</v>
+      <c r="A72" t="s">
+        <v>76</v>
       </c>
       <c r="B72">
         <v>463.8143005</v>
@@ -2762,8 +3249,8 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="3">
-        <v>45301</v>
+      <c r="A73" t="s">
+        <v>77</v>
       </c>
       <c r="B73">
         <v>466.43734740000002</v>
@@ -2782,8 +3269,8 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
-        <v>45302</v>
+      <c r="A74" t="s">
+        <v>78</v>
       </c>
       <c r="B74">
         <v>466.23181149999999</v>
@@ -2802,8 +3289,8 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
-        <v>45303</v>
+      <c r="A75" t="s">
+        <v>79</v>
       </c>
       <c r="B75">
         <v>466.5548096</v>
@@ -2822,8 +3309,8 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
-        <v>45307</v>
+      <c r="A76" t="s">
+        <v>80</v>
       </c>
       <c r="B76">
         <v>464.84197999999998</v>
@@ -2842,8 +3329,8 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
-        <v>45308</v>
+      <c r="A77" t="s">
+        <v>81</v>
       </c>
       <c r="B77">
         <v>462.2580261</v>
@@ -2862,8 +3349,8 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="3">
-        <v>45309</v>
+      <c r="A78" t="s">
+        <v>82</v>
       </c>
       <c r="B78">
         <v>466.36886600000003</v>
@@ -2882,8 +3369,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
-        <v>45310</v>
+      <c r="A79" t="s">
+        <v>83</v>
       </c>
       <c r="B79">
         <v>472.18270869999998</v>
@@ -2902,8 +3389,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
-        <v>45313</v>
+      <c r="A80" t="s">
+        <v>84</v>
       </c>
       <c r="B80">
         <v>473.18106080000001</v>
@@ -2922,8 +3409,8 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
-        <v>45314</v>
+      <c r="A81" t="s">
+        <v>85</v>
       </c>
       <c r="B81">
         <v>474.56097410000001</v>
@@ -2942,8 +3429,8 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
-        <v>45315</v>
+      <c r="A82" t="s">
+        <v>86</v>
       </c>
       <c r="B82">
         <v>475.07977290000002</v>
@@ -2962,8 +3449,8 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
-        <v>45316</v>
+      <c r="A83" t="s">
+        <v>87</v>
       </c>
       <c r="B83">
         <v>477.66372680000001</v>
@@ -2982,8 +3469,8 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
-        <v>45317</v>
+      <c r="A84" t="s">
+        <v>88</v>
       </c>
       <c r="B84">
         <v>477.05688479999998</v>
@@ -3002,8 +3489,8 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
-        <v>45320</v>
+      <c r="A85" t="s">
+        <v>89</v>
       </c>
       <c r="B85">
         <v>480.8348694</v>
@@ -3022,8 +3509,8 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
-        <v>45321</v>
+      <c r="A86" t="s">
+        <v>90</v>
       </c>
       <c r="B86">
         <v>480.46295170000002</v>
@@ -3042,8 +3529,8 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="3">
-        <v>45322</v>
+      <c r="A87" t="s">
+        <v>91</v>
       </c>
       <c r="B87">
         <v>472.62310789999998</v>
@@ -3062,8 +3549,8 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
-        <v>45323</v>
+      <c r="A88" t="s">
+        <v>92</v>
       </c>
       <c r="B88">
         <v>478.80889889999997</v>
@@ -3082,8 +3569,8 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
-        <v>45324</v>
+      <c r="A89" t="s">
+        <v>93</v>
       </c>
       <c r="B89">
         <v>483.84945679999998</v>
@@ -3102,8 +3589,8 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
-        <v>45327</v>
+      <c r="A90" t="s">
+        <v>94</v>
       </c>
       <c r="B90">
         <v>482.08770750000002</v>
@@ -3122,8 +3609,8 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
-        <v>45328</v>
+      <c r="A91" t="s">
+        <v>95</v>
       </c>
       <c r="B91">
         <v>483.48730469999998</v>
@@ -3142,8 +3629,8 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
-        <v>45329</v>
+      <c r="A92" t="s">
+        <v>96</v>
       </c>
       <c r="B92">
         <v>487.51977540000001</v>
@@ -3162,8 +3649,8 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
-        <v>45330</v>
+      <c r="A93" t="s">
+        <v>97</v>
       </c>
       <c r="B93">
         <v>487.73513789999998</v>
@@ -3182,8 +3669,8 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
-        <v>45331</v>
+      <c r="A94" t="s">
+        <v>98</v>
       </c>
       <c r="B94">
         <v>490.55401610000001</v>
@@ -3202,8 +3689,8 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
-        <v>45334</v>
+      <c r="A95" t="s">
+        <v>99</v>
       </c>
       <c r="B95">
         <v>490.33862299999998</v>
@@ -3222,8 +3709,8 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
-        <v>45335</v>
+      <c r="A96" t="s">
+        <v>100</v>
       </c>
       <c r="B96">
         <v>483.58517460000002</v>
@@ -3242,8 +3729,8 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
-        <v>45336</v>
+      <c r="A97" t="s">
+        <v>101</v>
       </c>
       <c r="B97">
         <v>487.97982789999998</v>
@@ -3262,8 +3749,8 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
-        <v>45337</v>
+      <c r="A98" t="s">
+        <v>102</v>
       </c>
       <c r="B98">
         <v>491.34677119999998</v>
@@ -3282,8 +3769,8 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
-        <v>45338</v>
+      <c r="A99" t="s">
+        <v>103</v>
       </c>
       <c r="B99">
         <v>488.89987180000003</v>
@@ -3302,8 +3789,8 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
-        <v>45342</v>
+      <c r="A100" t="s">
+        <v>104</v>
       </c>
       <c r="B100">
         <v>486.20825200000002</v>
@@ -3322,8 +3809,8 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
-        <v>45343</v>
+      <c r="A101" t="s">
+        <v>105</v>
       </c>
       <c r="B101">
         <v>486.64874270000001</v>
@@ -3342,8 +3829,8 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
-        <v>45344</v>
+      <c r="A102" t="s">
+        <v>106</v>
       </c>
       <c r="B102">
         <v>496.72018430000003</v>
@@ -3362,8 +3849,8 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
-        <v>45345</v>
+      <c r="A103" t="s">
+        <v>107</v>
       </c>
       <c r="B103">
         <v>497.06268310000002</v>
@@ -3382,8 +3869,8 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
-        <v>45348</v>
+      <c r="A104" t="s">
+        <v>108</v>
       </c>
       <c r="B104">
         <v>495.2421875</v>
@@ -3402,8 +3889,8 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
-        <v>45349</v>
+      <c r="A105" t="s">
+        <v>109</v>
       </c>
       <c r="B105">
         <v>496.162262</v>
@@ -3422,8 +3909,8 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
-        <v>45350</v>
+      <c r="A106" t="s">
+        <v>110</v>
       </c>
       <c r="B106">
         <v>495.5065002</v>
@@ -3442,8 +3929,8 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
-        <v>45351</v>
+      <c r="A107" t="s">
+        <v>111</v>
       </c>
       <c r="B107">
         <v>497.28781129999999</v>
@@ -3462,8 +3949,8 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
-        <v>45352</v>
+      <c r="A108" t="s">
+        <v>112</v>
       </c>
       <c r="B108">
         <v>501.95648189999997</v>
@@ -3482,8 +3969,8 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
-        <v>45355</v>
+      <c r="A109" t="s">
+        <v>113</v>
       </c>
       <c r="B109">
         <v>501.41821290000001</v>
@@ -3502,8 +3989,8 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="3">
-        <v>45356</v>
+      <c r="A110" t="s">
+        <v>114</v>
       </c>
       <c r="B110">
         <v>496.40692139999999</v>
@@ -3522,8 +4009,8 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="3">
-        <v>45357</v>
+      <c r="A111" t="s">
+        <v>115</v>
       </c>
       <c r="B111">
         <v>498.92233279999999</v>
@@ -3542,8 +4029,8 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="3">
-        <v>45358</v>
+      <c r="A112" t="s">
+        <v>116</v>
       </c>
       <c r="B112">
         <v>503.8748779</v>
@@ -3562,8 +4049,8 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="3">
-        <v>45359</v>
+      <c r="A113" t="s">
+        <v>117</v>
       </c>
       <c r="B113">
         <v>500.8504944</v>
@@ -3582,8 +4069,8 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>4</v>
+      <c r="A114" t="s">
+        <v>118</v>
       </c>
       <c r="B114">
         <v>500.4198303</v>
@@ -3602,8 +4089,8 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>5</v>
+      <c r="A115" t="s">
+        <v>119</v>
       </c>
       <c r="B115">
         <v>505.80303959999998</v>
@@ -3622,8 +4109,8 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>6</v>
+      <c r="A116" t="s">
+        <v>120</v>
       </c>
       <c r="B116">
         <v>505.01013180000001</v>
@@ -3642,8 +4129,8 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>7</v>
+      <c r="A117" t="s">
+        <v>121</v>
       </c>
       <c r="B117">
         <v>504.0119019</v>
@@ -3662,8 +4149,8 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>8</v>
+      <c r="A118" t="s">
+        <v>122</v>
       </c>
       <c r="B118">
         <v>500.55105589999999</v>
@@ -3682,8 +4169,8 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>9</v>
+      <c r="A119" t="s">
+        <v>123</v>
       </c>
       <c r="B119">
         <v>503.52587890000001</v>
@@ -3702,8 +4189,8 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>10</v>
+      <c r="A120" t="s">
+        <v>124</v>
       </c>
       <c r="B120">
         <v>506.32409669999998</v>
@@ -3722,8 +4209,8 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>11</v>
+      <c r="A121" t="s">
+        <v>125</v>
       </c>
       <c r="B121">
         <v>511.00717159999999</v>
@@ -3742,8 +4229,8 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>12</v>
+      <c r="A122" t="s">
+        <v>126</v>
       </c>
       <c r="B122">
         <v>512.69598389999999</v>
@@ -3762,8 +4249,8 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>13</v>
+      <c r="A123" t="s">
+        <v>127</v>
       </c>
       <c r="B123">
         <v>511.72396850000001</v>
@@ -3782,8 +4269,8 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>14</v>
+      <c r="A124" t="s">
+        <v>128</v>
       </c>
       <c r="B124">
         <v>510.31018069999999</v>
@@ -3802,8 +4289,8 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>15</v>
+      <c r="A125" t="s">
+        <v>129</v>
       </c>
       <c r="B125">
         <v>509.36764529999999</v>
@@ -3822,8 +4309,8 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>16</v>
+      <c r="A126" t="s">
+        <v>130</v>
       </c>
       <c r="B126">
         <v>513.6483154</v>
@@ -3842,8 +4329,8 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>17</v>
+      <c r="A127" t="s">
+        <v>131</v>
       </c>
       <c r="B127">
         <v>513.55010990000005</v>
@@ -3862,8 +4349,8 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>18</v>
+      <c r="A128" t="s">
+        <v>132</v>
       </c>
       <c r="B128">
         <v>512.65661620000003</v>
@@ -3882,8 +4369,8 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
-        <v>19</v>
+      <c r="A129" t="s">
+        <v>133</v>
       </c>
       <c r="B129">
         <v>509.3971252</v>
@@ -3902,8 +4389,8 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
-        <v>20</v>
+      <c r="A130" t="s">
+        <v>134</v>
       </c>
       <c r="B130">
         <v>509.95669559999999</v>
@@ -3922,8 +4409,8 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>21</v>
+      <c r="A131" t="s">
+        <v>135</v>
       </c>
       <c r="B131">
         <v>503.73214719999999</v>
@@ -3942,8 +4429,8 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>22</v>
+      <c r="A132" t="s">
+        <v>136</v>
       </c>
       <c r="B132">
         <v>508.99447629999997</v>
@@ -3962,8 +4449,8 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>23</v>
+      <c r="A133" t="s">
+        <v>137</v>
       </c>
       <c r="B133">
         <v>509.27923579999998</v>
@@ -3982,8 +4469,8 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
-        <v>24</v>
+      <c r="A134" t="s">
+        <v>138</v>
       </c>
       <c r="B134">
         <v>509.86831669999998</v>
@@ -4002,8 +4489,8 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
-        <v>25</v>
+      <c r="A135" t="s">
+        <v>139</v>
       </c>
       <c r="B135">
         <v>504.76300049999998</v>
@@ -4022,8 +4509,8 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
-        <v>26</v>
+      <c r="A136" t="s">
+        <v>140</v>
       </c>
       <c r="B136">
         <v>508.57238769999998</v>
@@ -4042,8 +4529,8 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
-        <v>27</v>
+      <c r="A137" t="s">
+        <v>141</v>
       </c>
       <c r="B137">
         <v>501.55252080000002</v>
@@ -4062,8 +4549,8 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
-        <v>28</v>
+      <c r="A138" t="s">
+        <v>142</v>
       </c>
       <c r="B138">
         <v>495.26898189999997</v>
@@ -4082,8 +4569,8 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>29</v>
+      <c r="A139" t="s">
+        <v>143</v>
       </c>
       <c r="B139">
         <v>494.36572269999999</v>
@@ -4102,8 +4589,8 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
-        <v>30</v>
+      <c r="A140" t="s">
+        <v>144</v>
       </c>
       <c r="B140">
         <v>491.43994140000001</v>
@@ -4122,8 +4609,8 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
-        <v>31</v>
+      <c r="A141" t="s">
+        <v>145</v>
       </c>
       <c r="B141">
         <v>490.42868040000002</v>
@@ -4142,8 +4629,8 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
-        <v>32</v>
+      <c r="A142" t="s">
+        <v>146</v>
       </c>
       <c r="B142">
         <v>486.14807130000003</v>
@@ -4162,8 +4649,8 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>33</v>
+      <c r="A143" t="s">
+        <v>147</v>
       </c>
       <c r="B143">
         <v>490.62509160000002</v>
@@ -4182,8 +4669,8 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>34</v>
+      <c r="A144" t="s">
+        <v>148</v>
       </c>
       <c r="B144">
         <v>496.447113</v>
@@ -4202,8 +4689,8 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>35</v>
+      <c r="A145" t="s">
+        <v>149</v>
       </c>
       <c r="B145">
         <v>496.21151730000003</v>
@@ -4222,8 +4709,8 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
-        <v>36</v>
+      <c r="A146" t="s">
+        <v>150</v>
       </c>
       <c r="B146">
         <v>494.32644649999997</v>
@@ -4242,8 +4729,8 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
-        <v>37</v>
+      <c r="A147" t="s">
+        <v>151</v>
       </c>
       <c r="B147">
         <v>499.00967409999998</v>
@@ -4262,8 +4749,8 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
-        <v>38</v>
+      <c r="A148" t="s">
+        <v>152</v>
       </c>
       <c r="B148">
         <v>500.77685550000001</v>
@@ -4282,8 +4769,8 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
-        <v>39</v>
+      <c r="A149" t="s">
+        <v>153</v>
       </c>
       <c r="B149">
         <v>492.8439636</v>
@@ -4302,8 +4789,8 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
-        <v>40</v>
+      <c r="A150" t="s">
+        <v>154</v>
       </c>
       <c r="B150">
         <v>491.24359129999999</v>
@@ -4322,8 +4809,8 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>41</v>
+      <c r="A151" t="s">
+        <v>155</v>
       </c>
       <c r="B151">
         <v>495.83843990000003</v>
@@ -4342,8 +4829,8 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
-        <v>42</v>
+      <c r="A152" t="s">
+        <v>156</v>
       </c>
       <c r="B152">
         <v>501.98452759999998</v>
@@ -4362,8 +4849,8 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
-        <v>43</v>
+      <c r="A153" t="s">
+        <v>157</v>
       </c>
       <c r="B153">
         <v>507.16836549999999</v>
@@ -4382,8 +4869,8 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
-        <v>44</v>
+      <c r="A154" t="s">
+        <v>158</v>
       </c>
       <c r="B154">
         <v>507.72805790000001</v>
@@ -4402,8 +4889,8 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>45</v>
+      <c r="A155" t="s">
+        <v>159</v>
       </c>
       <c r="B155">
         <v>507.77706910000001</v>
@@ -4422,8 +4909,8 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
-        <v>46</v>
+      <c r="A156" t="s">
+        <v>160</v>
       </c>
       <c r="B156">
         <v>510.70275880000003</v>
@@ -4442,8 +4929,8 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
-        <v>47</v>
+      <c r="A157" t="s">
+        <v>161</v>
       </c>
       <c r="B157">
         <v>511.36071779999997</v>
@@ -4462,8 +4949,8 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
-        <v>48</v>
+      <c r="A158" t="s">
+        <v>162</v>
       </c>
       <c r="B158">
         <v>511.42944340000003</v>
@@ -4482,8 +4969,8 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
-        <v>49</v>
+      <c r="A159" t="s">
+        <v>163</v>
       </c>
       <c r="B159">
         <v>513.77587889999995</v>
@@ -4502,8 +4989,8 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
-        <v>50</v>
+      <c r="A160" t="s">
+        <v>164</v>
       </c>
       <c r="B160">
         <v>520.13806150000005</v>
@@ -4522,8 +5009,8 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
-        <v>51</v>
+      <c r="A161" t="s">
+        <v>165</v>
       </c>
       <c r="B161">
         <v>519.06781009999997</v>
@@ -4542,8 +5029,8 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
-        <v>52</v>
+      <c r="A162" t="s">
+        <v>166</v>
       </c>
       <c r="B162">
         <v>519.81396480000001</v>
@@ -4562,8 +5049,8 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
-        <v>53</v>
+      <c r="A163" t="s">
+        <v>167</v>
       </c>
       <c r="B163">
         <v>520.41290279999998</v>
@@ -4582,8 +5069,8 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
-        <v>54</v>
+      <c r="A164" t="s">
+        <v>168</v>
       </c>
       <c r="B164">
         <v>521.68914789999997</v>
@@ -4602,8 +5089,8 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
-        <v>55</v>
+      <c r="A165" t="s">
+        <v>169</v>
       </c>
       <c r="B165">
         <v>520.18707280000001</v>
@@ -4622,8 +5109,8 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
-        <v>56</v>
+      <c r="A166" t="s">
+        <v>170</v>
       </c>
       <c r="B166">
         <v>516.38757320000002</v>
@@ -4642,8 +5129,8 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
-        <v>57</v>
+      <c r="A167" t="s">
+        <v>171</v>
       </c>
       <c r="B167">
         <v>519.80419919999997</v>
@@ -4662,8 +5149,8 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
-        <v>58</v>
+      <c r="A168" t="s">
+        <v>172</v>
       </c>
       <c r="B168">
         <v>520.16741939999997</v>
@@ -4682,8 +5169,8 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
-        <v>59</v>
+      <c r="A169" t="s">
+        <v>173</v>
       </c>
       <c r="B169">
         <v>516.52496340000005</v>
@@ -4702,8 +5189,8 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
-        <v>60</v>
+      <c r="A170" t="s">
+        <v>174</v>
       </c>
       <c r="B170">
         <v>513.09844969999995</v>
@@ -4722,8 +5209,8 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
-        <v>61</v>
+      <c r="A171" t="s">
+        <v>175</v>
       </c>
       <c r="B171">
         <v>517.77185059999999</v>
@@ -4742,8 +5229,8 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
-        <v>62</v>
+      <c r="A172" t="s">
+        <v>176</v>
       </c>
       <c r="B172">
         <v>518.19403079999995</v>
@@ -4762,8 +5249,8 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
-        <v>63</v>
+      <c r="A173" t="s">
+        <v>177</v>
       </c>
       <c r="B173">
         <v>518.7733154</v>
@@ -4782,8 +5269,8 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
-        <v>64</v>
+      <c r="A174" t="s">
+        <v>178</v>
       </c>
       <c r="B174">
         <v>524.93890380000005</v>
@@ -4802,8 +5289,8 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
-        <v>65</v>
+      <c r="A175" t="s">
+        <v>179</v>
       </c>
       <c r="B175">
         <v>524.92913820000001</v>
@@ -4822,8 +5309,8 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
-        <v>66</v>
+      <c r="A176" t="s">
+        <v>180</v>
       </c>
       <c r="B176">
         <v>524.29101560000004</v>
@@ -4842,8 +5329,8 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
-        <v>67</v>
+      <c r="A177" t="s">
+        <v>181</v>
       </c>
       <c r="B177">
         <v>525.91088869999999</v>
@@ -4862,8 +5349,8 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
-        <v>68</v>
+      <c r="A178" t="s">
+        <v>182</v>
       </c>
       <c r="B178">
         <v>527.17749019999997</v>
@@ -4882,8 +5369,8 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
-        <v>69</v>
+      <c r="A179" t="s">
+        <v>183</v>
       </c>
       <c r="B179">
         <v>531.50720209999997</v>
@@ -4902,8 +5389,8 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
-        <v>70</v>
+      <c r="A180" t="s">
+        <v>184</v>
       </c>
       <c r="B180">
         <v>532.57733150000001</v>
@@ -4922,8 +5409,8 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
-        <v>71</v>
+      <c r="A181" t="s">
+        <v>185</v>
       </c>
       <c r="B181">
         <v>532.90136719999998</v>
@@ -4942,8 +5429,8 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
-        <v>72</v>
+      <c r="A182" t="s">
+        <v>186</v>
       </c>
       <c r="B182">
         <v>537.1427612</v>
@@ -4962,8 +5449,8 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
-        <v>73</v>
+      <c r="A183" t="s">
+        <v>187</v>
       </c>
       <c r="B183">
         <v>538.50744629999997</v>
@@ -4982,8 +5469,8 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
-        <v>74</v>
+      <c r="A184" t="s">
+        <v>188</v>
       </c>
       <c r="B184">
         <v>537.04461670000001</v>
@@ -5002,8 +5489,8 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
-        <v>75</v>
+      <c r="A185" t="s">
+        <v>189</v>
       </c>
       <c r="B185">
         <v>536.32452390000003</v>
@@ -5022,8 +5509,8 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
-        <v>76</v>
+      <c r="A186" t="s">
+        <v>190</v>
       </c>
       <c r="B186">
         <v>534.58111570000005</v>
@@ -5042,8 +5529,8 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
-        <v>77</v>
+      <c r="A187" t="s">
+        <v>191</v>
       </c>
       <c r="B187">
         <v>536.63977050000005</v>
@@ -5062,8 +5549,8 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>78</v>
+      <c r="A188" t="s">
+        <v>192</v>
       </c>
       <c r="B188">
         <v>537.30957030000002</v>
@@ -5082,8 +5569,8 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
-        <v>79</v>
+      <c r="A189" t="s">
+        <v>193</v>
       </c>
       <c r="B189">
         <v>538.15661620000003</v>
@@ -5102,8 +5589,8 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
-        <v>80</v>
+      <c r="A190" t="s">
+        <v>194</v>
       </c>
       <c r="B190">
         <v>536.03887940000004</v>
@@ -5122,8 +5609,8 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>81</v>
+      <c r="A191" t="s">
+        <v>195</v>
       </c>
       <c r="B191">
         <v>537.14215090000005</v>
@@ -5142,8 +5629,8 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
-        <v>82</v>
+      <c r="A192" t="s">
+        <v>196</v>
       </c>
       <c r="B192">
         <v>540.75689699999998</v>
@@ -5162,8 +5649,8 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
-        <v>83</v>
+      <c r="A193" t="s">
+        <v>197</v>
       </c>
       <c r="B193">
         <v>543.1700439</v>
@@ -5182,8 +5669,8 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
-        <v>84</v>
+      <c r="A194" t="s">
+        <v>198</v>
       </c>
       <c r="B194">
         <v>546.30230710000001</v>
@@ -5202,8 +5689,8 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
-        <v>85</v>
+      <c r="A195" t="s">
+        <v>199</v>
       </c>
       <c r="B195">
         <v>546.93267820000005</v>
@@ -5222,8 +5709,8 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
-        <v>86</v>
+      <c r="A196" t="s">
+        <v>200</v>
       </c>
       <c r="B196">
         <v>547.46453859999997</v>
@@ -5242,8 +5729,8 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
-        <v>87</v>
+      <c r="A197" t="s">
+        <v>201</v>
       </c>
       <c r="B197">
         <v>552.88183590000006</v>
@@ -5262,8 +5749,8 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
-        <v>88</v>
+      <c r="A198" t="s">
+        <v>202</v>
       </c>
       <c r="B198">
         <v>548.11456299999998</v>
@@ -5282,8 +5769,8 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
-        <v>89</v>
+      <c r="A199" t="s">
+        <v>203</v>
       </c>
       <c r="B199">
         <v>551.57189940000001</v>
@@ -5302,8 +5789,8 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
-        <v>90</v>
+      <c r="A200" t="s">
+        <v>204</v>
       </c>
       <c r="B200">
         <v>553.08874509999998</v>
@@ -5322,8 +5809,8 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
-        <v>91</v>
+      <c r="A201" t="s">
+        <v>205</v>
       </c>
       <c r="B201">
         <v>556.36865230000001</v>
@@ -5342,8 +5829,8 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
-        <v>92</v>
+      <c r="A202" t="s">
+        <v>206</v>
       </c>
       <c r="B202">
         <v>548.56774900000005</v>
@@ -5362,8 +5849,8 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
-        <v>93</v>
+      <c r="A203" t="s">
+        <v>207</v>
       </c>
       <c r="B203">
         <v>544.35198969999999</v>
@@ -5382,8 +5869,8 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
-        <v>94</v>
+      <c r="A204" t="s">
+        <v>208</v>
       </c>
       <c r="B204">
         <v>540.73724370000002</v>
@@ -5402,8 +5889,8 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
-        <v>95</v>
+      <c r="A205" t="s">
+        <v>209</v>
       </c>
       <c r="B205">
         <v>546.31219480000004</v>
@@ -5422,8 +5909,8 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
-        <v>96</v>
+      <c r="A206" t="s">
+        <v>210</v>
       </c>
       <c r="B206">
         <v>545.4552612</v>
@@ -5442,8 +5929,8 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
-        <v>97</v>
+      <c r="A207" t="s">
+        <v>211</v>
       </c>
       <c r="B207">
         <v>533.0938721</v>
@@ -5462,8 +5949,8 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
-        <v>98</v>
+      <c r="A208" t="s">
+        <v>212</v>
       </c>
       <c r="B208">
         <v>530.3162231</v>
@@ -5482,8 +5969,8 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
-        <v>99</v>
+      <c r="A209" t="s">
+        <v>213</v>
       </c>
       <c r="B209">
         <v>536.25561519999997</v>
@@ -5502,8 +5989,8 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
-        <v>100</v>
+      <c r="A210" t="s">
+        <v>214</v>
       </c>
       <c r="B210">
         <v>536.57080080000003</v>
@@ -5522,8 +6009,8 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
-        <v>101</v>
+      <c r="A211" t="s">
+        <v>215</v>
       </c>
       <c r="B211">
         <v>533.85229489999995</v>
@@ -5542,8 +6029,8 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
-        <v>102</v>
+      <c r="A212" t="s">
+        <v>216</v>
       </c>
       <c r="B212">
         <v>542.52984619999995</v>
@@ -5562,8 +6049,8 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
-        <v>103</v>
+      <c r="A213" t="s">
+        <v>217</v>
       </c>
       <c r="B213">
         <v>534.84704590000001</v>
@@ -5582,8 +6069,8 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
-        <v>104</v>
+      <c r="A214" t="s">
+        <v>218</v>
       </c>
       <c r="B214">
         <v>524.88909909999995</v>
@@ -5602,8 +6089,8 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
-        <v>105</v>
+      <c r="A215" t="s">
+        <v>219</v>
       </c>
       <c r="B215">
         <v>509.602417</v>
@@ -5622,8 +6109,8 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
-        <v>106</v>
+      <c r="A216" t="s">
+        <v>220</v>
       </c>
       <c r="B216">
         <v>514.30078130000004</v>
@@ -5642,8 +6129,8 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
-        <v>107</v>
+      <c r="A217" t="s">
+        <v>221</v>
       </c>
       <c r="B217">
         <v>510.86315919999998</v>
@@ -5662,8 +6149,8 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
-        <v>108</v>
+      <c r="A218" t="s">
+        <v>222</v>
       </c>
       <c r="B218">
         <v>522.67285159999994</v>
@@ -5682,8 +6169,8 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
-        <v>109</v>
+      <c r="A219" t="s">
+        <v>223</v>
       </c>
       <c r="B219">
         <v>524.97772220000002</v>
@@ -5702,8 +6189,8 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
-        <v>110</v>
+      <c r="A220" t="s">
+        <v>224</v>
       </c>
       <c r="B220">
         <v>525.25354000000004</v>
@@ -5722,8 +6209,8 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
-        <v>111</v>
+      <c r="A221" t="s">
+        <v>225</v>
       </c>
       <c r="B221">
         <v>533.89160159999994</v>
@@ -5742,8 +6229,8 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
-        <v>112</v>
+      <c r="A222" t="s">
+        <v>226</v>
       </c>
       <c r="B222">
         <v>535.5759888</v>
@@ -5762,8 +6249,8 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
-        <v>113</v>
+      <c r="A223" t="s">
+        <v>227</v>
       </c>
       <c r="B223">
         <v>544.75585939999996</v>
@@ -5782,8 +6269,8 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
-        <v>114</v>
+      <c r="A224" t="s">
+        <v>228</v>
       </c>
       <c r="B224">
         <v>545.97723389999999</v>
@@ -5802,8 +6289,8 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
-        <v>115</v>
+      <c r="A225" t="s">
+        <v>229</v>
       </c>
       <c r="B225">
         <v>551.19763179999995</v>
@@ -5822,8 +6309,8 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
-        <v>116</v>
+      <c r="A226" t="s">
+        <v>230</v>
       </c>
       <c r="B226">
         <v>550.30120850000003</v>
@@ -5842,8 +6329,8 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
-        <v>117</v>
+      <c r="A227" t="s">
+        <v>231</v>
       </c>
       <c r="B227">
         <v>552.19238280000002</v>
@@ -5862,8 +6349,8 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
-        <v>118</v>
+      <c r="A228" t="s">
+        <v>232</v>
       </c>
       <c r="B228">
         <v>547.85839840000006</v>
@@ -5882,8 +6369,8 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
-        <v>119</v>
+      <c r="A229" t="s">
+        <v>233</v>
       </c>
       <c r="B229">
         <v>553.6796875</v>
@@ -5902,8 +6389,8 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
-        <v>120</v>
+      <c r="A230" t="s">
+        <v>234</v>
       </c>
       <c r="B230">
         <v>552.35986330000003</v>
@@ -5922,8 +6409,8 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
-        <v>121</v>
+      <c r="A231" t="s">
+        <v>235</v>
       </c>
       <c r="B231">
         <v>553.11828609999998</v>
@@ -5942,8 +6429,8 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
-        <v>122</v>
+      <c r="A232" t="s">
+        <v>236</v>
       </c>
       <c r="B232">
         <v>549.90722659999994</v>
@@ -5962,8 +6449,8 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
-        <v>123</v>
+      <c r="A233" t="s">
+        <v>237</v>
       </c>
       <c r="B233">
         <v>549.95648189999997</v>
@@ -5982,8 +6469,8 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
-        <v>124</v>
+      <c r="A234" t="s">
+        <v>238</v>
       </c>
       <c r="B234">
         <v>555.20642090000001</v>
@@ -6002,8 +6489,8 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
-        <v>125</v>
+      <c r="A235" t="s">
+        <v>239</v>
       </c>
       <c r="B235">
         <v>543.78082280000001</v>
@@ -6022,8 +6509,8 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
-        <v>126</v>
+      <c r="A236" t="s">
+        <v>240</v>
       </c>
       <c r="B236">
         <v>542.6677856</v>
@@ -6042,8 +6529,8 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
-        <v>127</v>
+      <c r="A237" t="s">
+        <v>241</v>
       </c>
       <c r="B237">
         <v>541.34790039999996</v>
@@ -6062,8 +6549,8 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
-        <v>128</v>
+      <c r="A238" t="s">
+        <v>242</v>
       </c>
       <c r="B238">
         <v>532.23687740000003</v>
@@ -6082,8 +6569,8 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
-        <v>129</v>
+      <c r="A239" t="s">
+        <v>243</v>
       </c>
       <c r="B239">
         <v>538.19598389999999</v>
@@ -6102,8 +6589,8 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
-        <v>130</v>
+      <c r="A240" t="s">
+        <v>244</v>
       </c>
       <c r="B240">
         <v>540.54016109999998</v>
@@ -6122,8 +6609,8 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
-        <v>131</v>
+      <c r="A241" t="s">
+        <v>245</v>
       </c>
       <c r="B241">
         <v>546.08557129999997</v>
@@ -6142,8 +6629,8 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
-        <v>132</v>
+      <c r="A242" t="s">
+        <v>246</v>
       </c>
       <c r="B242">
         <v>550.68542479999996</v>
@@ -6162,8 +6649,8 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
-        <v>133</v>
+      <c r="A243" t="s">
+        <v>247</v>
       </c>
       <c r="B243">
         <v>553.56146239999998</v>
@@ -6182,8 +6669,8 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
-        <v>134</v>
+      <c r="A244" t="s">
+        <v>248</v>
       </c>
       <c r="B244">
         <v>554.3790894</v>
@@ -6202,8 +6689,8 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
-        <v>135</v>
+      <c r="A245" t="s">
+        <v>249</v>
       </c>
       <c r="B245">
         <v>554.60559079999996</v>
@@ -6222,8 +6709,8 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
-        <v>136</v>
+      <c r="A246" t="s">
+        <v>250</v>
       </c>
       <c r="B246">
         <v>552.96075440000004</v>
@@ -6242,8 +6729,8 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
-        <v>137</v>
+      <c r="A247" t="s">
+        <v>251</v>
       </c>
       <c r="B247">
         <v>562.39672849999999</v>
@@ -6262,8 +6749,8 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
-        <v>138</v>
+      <c r="A248" t="s">
+        <v>252</v>
       </c>
       <c r="B248">
         <v>561.42449950000002</v>
@@ -6282,8 +6769,8 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
-        <v>139</v>
+      <c r="A249" t="s">
+        <v>253</v>
       </c>
       <c r="B249">
         <v>562.82733150000001</v>
@@ -6302,8 +6789,8 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
-        <v>140</v>
+      <c r="A250" t="s">
+        <v>254</v>
       </c>
       <c r="B250">
         <v>564.43780519999996</v>
@@ -6322,8 +6809,8 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
-        <v>141</v>
+      <c r="A251" t="s">
+        <v>255</v>
       </c>
       <c r="B251">
         <v>563.19293210000001</v>
@@ -6342,8 +6829,8 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A252" s="1" t="s">
-        <v>142</v>
+      <c r="A252" t="s">
+        <v>256</v>
       </c>
       <c r="B252">
         <v>565.42578130000004</v>
@@ -6362,8 +6849,8 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
-        <v>143</v>
+      <c r="A253" t="s">
+        <v>257</v>
       </c>
       <c r="B253">
         <v>564.60577390000003</v>
@@ -6382,8 +6869,8 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
-        <v>144</v>
+      <c r="A254" t="s">
+        <v>258</v>
       </c>
       <c r="B254">
         <v>566.86828609999998</v>
@@ -6402,8 +6889,8 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
-        <v>145</v>
+      <c r="A255" t="s">
+        <v>259</v>
       </c>
       <c r="B255">
         <v>561.79010010000002</v>
@@ -6422,8 +6909,8 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A256" s="1" t="s">
-        <v>146</v>
+      <c r="A256" t="s">
+        <v>260</v>
       </c>
       <c r="B256">
         <v>562.0271606</v>
@@ -6442,8 +6929,8 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
-        <v>147</v>
+      <c r="A257" t="s">
+        <v>261</v>
       </c>
       <c r="B257">
         <v>560.99963379999997</v>
@@ -6462,8 +6949,8 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
-        <v>148</v>
+      <c r="A258" t="s">
+        <v>262</v>
       </c>
       <c r="B258">
         <v>566.09765630000004</v>
@@ -6482,8 +6969,8 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
-        <v>149</v>
+      <c r="A259" t="s">
+        <v>263</v>
       </c>
       <c r="B259">
         <v>560.97985840000001</v>
@@ -6502,8 +6989,8 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
-        <v>150</v>
+      <c r="A260" t="s">
+        <v>264</v>
       </c>
       <c r="B260">
         <v>566.2853394</v>
@@ -6522,8 +7009,8 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
-        <v>151</v>
+      <c r="A261" t="s">
+        <v>265</v>
       </c>
       <c r="B261">
         <v>570.20770259999995</v>
@@ -6542,8 +7029,8 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
-        <v>152</v>
+      <c r="A262" t="s">
+        <v>266</v>
       </c>
       <c r="B262">
         <v>569.20983890000002</v>
@@ -6562,8 +7049,8 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A263" s="1" t="s">
-        <v>153</v>
+      <c r="A263" t="s">
+        <v>267</v>
       </c>
       <c r="B263">
         <v>572.61834720000002</v>
@@ -6582,8 +7069,8 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
-        <v>154</v>
+      <c r="A264" t="s">
+        <v>268</v>
       </c>
       <c r="B264">
         <v>577.30145259999995</v>
@@ -6602,8 +7089,8 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A265" s="1" t="s">
-        <v>155</v>
+      <c r="A265" t="s">
+        <v>269</v>
       </c>
       <c r="B265">
         <v>572.81604000000004</v>
@@ -6622,8 +7109,8 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
-        <v>156</v>
+      <c r="A266" t="s">
+        <v>270</v>
       </c>
       <c r="B266">
         <v>575.30572510000002</v>
@@ -6642,8 +7129,8 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A267" s="1" t="s">
-        <v>157</v>
+      <c r="A267" t="s">
+        <v>271</v>
       </c>
       <c r="B267">
         <v>575.35510250000004</v>
@@ -6662,8 +7149,8 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
-        <v>158</v>
+      <c r="A268" t="s">
+        <v>272</v>
       </c>
       <c r="B268">
         <v>577.56823729999996</v>
@@ -6682,8 +7169,8 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="1" t="s">
-        <v>159</v>
+      <c r="A269" t="s">
+        <v>273</v>
       </c>
       <c r="B269">
         <v>576.61975099999995</v>
@@ -6702,8 +7189,8 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A270" s="1" t="s">
-        <v>160</v>
+      <c r="A270" t="s">
+        <v>274</v>
       </c>
       <c r="B270">
         <v>576.31347659999994</v>
@@ -6722,8 +7209,8 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A271" s="1" t="s">
-        <v>161</v>
+      <c r="A271" t="s">
+        <v>275</v>
       </c>
       <c r="B271">
         <v>571.04742429999999</v>
@@ -6742,8 +7229,8 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A272" s="1" t="s">
-        <v>162</v>
+      <c r="A272" t="s">
+        <v>276</v>
       </c>
       <c r="B272">
         <v>572.28247069999998</v>
@@ -6762,8 +7249,8 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A273" s="1" t="s">
-        <v>163</v>
+      <c r="A273" t="s">
+        <v>277</v>
       </c>
       <c r="B273">
         <v>572.08483890000002</v>
@@ -6782,8 +7269,8 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
-        <v>164</v>
+      <c r="A274" t="s">
+        <v>278</v>
       </c>
       <c r="B274">
         <v>573.8533936</v>
@@ -6802,8 +7289,8 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="1" t="s">
-        <v>165</v>
+      <c r="A275" t="s">
+        <v>279</v>
       </c>
       <c r="B275">
         <v>574.78204349999999</v>
@@ -6822,8 +7309,8 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
-        <v>166</v>
+      <c r="A276" t="s">
+        <v>280</v>
       </c>
       <c r="B276">
         <v>573.04321289999996</v>
@@ -6842,8 +7329,8 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
-        <v>167</v>
+      <c r="A277" t="s">
+        <v>281</v>
       </c>
       <c r="B277">
         <v>561.80987549999998</v>
@@ -6862,8 +7349,8 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A278" s="1" t="s">
-        <v>168</v>
+      <c r="A278" t="s">
+        <v>282</v>
       </c>
       <c r="B278">
         <v>564.18090819999998</v>
@@ -6882,8 +7369,8 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A279" s="1" t="s">
-        <v>169</v>
+      <c r="A279" t="s">
+        <v>283</v>
       </c>
       <c r="B279">
         <v>562.96569820000002</v>
@@ -6902,8 +7389,8 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A280" s="1" t="s">
-        <v>170</v>
+      <c r="A280" t="s">
+        <v>284</v>
       </c>
       <c r="B280">
         <v>569.77294919999997</v>
@@ -6922,8 +7409,8 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A281" s="1" t="s">
-        <v>171</v>
+      <c r="A281" t="s">
+        <v>285</v>
       </c>
       <c r="B281">
         <v>583.94067380000001</v>
@@ -6942,8 +7429,8 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A282" s="1" t="s">
-        <v>172</v>
+      <c r="A282" t="s">
+        <v>286</v>
       </c>
       <c r="B282">
         <v>588.45581049999998</v>
@@ -6962,8 +7449,8 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A283" s="1" t="s">
-        <v>173</v>
+      <c r="A283" t="s">
+        <v>287</v>
       </c>
       <c r="B283">
         <v>591.00494379999998</v>
@@ -6982,8 +7469,8 @@
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A284" s="1" t="s">
-        <v>174</v>
+      <c r="A284" t="s">
+        <v>288</v>
       </c>
       <c r="B284">
         <v>591.56799320000005</v>
@@ -7002,8 +7489,8 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A285" s="1" t="s">
-        <v>175</v>
+      <c r="A285" t="s">
+        <v>289</v>
       </c>
       <c r="B285">
         <v>589.73034670000004</v>
@@ -7022,8 +7509,8 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A286" s="1" t="s">
-        <v>176</v>
+      <c r="A286" t="s">
+        <v>290</v>
       </c>
       <c r="B286">
         <v>590.01684569999998</v>
@@ -7042,8 +7529,8 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A287" s="1" t="s">
-        <v>177</v>
+      <c r="A287" t="s">
+        <v>291</v>
       </c>
       <c r="B287">
         <v>586.22296140000003</v>
@@ -7062,8 +7549,8 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
-        <v>178</v>
+      <c r="A288" t="s">
+        <v>292</v>
       </c>
       <c r="B288">
         <v>578.71423340000001</v>
@@ -7082,8 +7569,8 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A289" s="1" t="s">
-        <v>179</v>
+      <c r="A289" t="s">
+        <v>293</v>
       </c>
       <c r="B289">
         <v>581.08544919999997</v>
@@ -7102,8 +7589,8 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A290" s="1" t="s">
-        <v>180</v>
+      <c r="A290" t="s">
+        <v>294</v>
       </c>
       <c r="B290">
         <v>583.20965579999995</v>
@@ -7122,8 +7609,8 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A291" s="1" t="s">
-        <v>181</v>
+      <c r="A291" t="s">
+        <v>295</v>
       </c>
       <c r="B291">
         <v>583.40722659999994</v>
@@ -7142,8 +7629,8 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A292" s="1" t="s">
-        <v>182</v>
+      <c r="A292" t="s">
+        <v>296</v>
       </c>
       <c r="B292">
         <v>586.5390625</v>
@@ -7162,8 +7649,8 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A293" s="1" t="s">
-        <v>183</v>
+      <c r="A293" t="s">
+        <v>297</v>
       </c>
       <c r="B293">
         <v>588.35705570000005</v>
@@ -7182,8 +7669,8 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="1" t="s">
-        <v>184</v>
+      <c r="A294" t="s">
+        <v>298</v>
       </c>
       <c r="B294">
         <v>590.35284420000005</v>
@@ -7202,8 +7689,8 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A295" s="1" t="s">
-        <v>185</v>
+      <c r="A295" t="s">
+        <v>299</v>
       </c>
       <c r="B295">
         <v>593.4353638</v>
@@ -7222,8 +7709,8 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A296" s="1" t="s">
-        <v>186</v>
+      <c r="A296" t="s">
+        <v>300</v>
       </c>
       <c r="B296">
         <v>591.63720699999999</v>
@@ -7242,8 +7729,8 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A297" s="1" t="s">
-        <v>187</v>
+      <c r="A297" t="s">
+        <v>301</v>
       </c>
       <c r="B297">
         <v>595.3125</v>
@@ -7262,8 +7749,8 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A298" s="1" t="s">
-        <v>188</v>
+      <c r="A298" t="s">
+        <v>302</v>
       </c>
       <c r="B298">
         <v>596.37945560000003</v>
@@ -7282,8 +7769,8 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" s="1" t="s">
-        <v>189</v>
+      <c r="A299" t="s">
+        <v>303</v>
       </c>
       <c r="B299">
         <v>596.65606690000004</v>
@@ -7302,8 +7789,8 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A300" s="1" t="s">
-        <v>190</v>
+      <c r="A300" t="s">
+        <v>304</v>
       </c>
       <c r="B300">
         <v>600.36108400000001</v>
@@ -7322,8 +7809,8 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A301" s="1" t="s">
-        <v>191</v>
+      <c r="A301" t="s">
+        <v>305</v>
       </c>
       <c r="B301">
         <v>599.37304689999996</v>
@@ -7342,8 +7829,8 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A302" s="1" t="s">
-        <v>192</v>
+      <c r="A302" t="s">
+        <v>306</v>
       </c>
       <c r="B302">
         <v>600.50927730000001</v>
@@ -7362,8 +7849,8 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A303" s="1" t="s">
-        <v>193</v>
+      <c r="A303" t="s">
+        <v>307</v>
       </c>
       <c r="B303">
         <v>597.41687009999998</v>
@@ -7382,8 +7869,8 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A304" s="1" t="s">
-        <v>194</v>
+      <c r="A304" t="s">
+        <v>308</v>
       </c>
       <c r="B304">
         <v>595.55950929999995</v>
@@ -7402,8 +7889,8 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" s="1" t="s">
-        <v>195</v>
+      <c r="A305" t="s">
+        <v>309</v>
       </c>
       <c r="B305">
         <v>600.16357419999997</v>
@@ -7422,8 +7909,8 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A306" s="1" t="s">
-        <v>196</v>
+      <c r="A306" t="s">
+        <v>310</v>
       </c>
       <c r="B306">
         <v>597.07110599999999</v>
@@ -7442,8 +7929,8 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A307" s="1" t="s">
-        <v>197</v>
+      <c r="A307" t="s">
+        <v>311</v>
       </c>
       <c r="B307">
         <v>596.95257570000001</v>
@@ -7462,8 +7949,8 @@
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A308" s="1" t="s">
-        <v>198</v>
+      <c r="A308" t="s">
+        <v>312</v>
       </c>
       <c r="B308">
         <v>599.50152590000005</v>
@@ -7482,8 +7969,8 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A309" s="1" t="s">
-        <v>199</v>
+      <c r="A309" t="s">
+        <v>313</v>
       </c>
       <c r="B309">
         <v>597.03155519999996</v>
@@ -7502,8 +7989,8 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A310" s="1" t="s">
-        <v>200</v>
+      <c r="A310" t="s">
+        <v>314</v>
       </c>
       <c r="B310">
         <v>579.23791500000004</v>
@@ -7522,8 +8009,8 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A311" s="1" t="s">
-        <v>201</v>
+      <c r="A311" t="s">
+        <v>315</v>
       </c>
       <c r="B311">
         <v>579.05999759999997</v>
@@ -7542,8 +8029,8 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" s="1" t="s">
-        <v>202</v>
+      <c r="A312" t="s">
+        <v>316</v>
       </c>
       <c r="B312">
         <v>586.01513669999997</v>
@@ -7562,8 +8049,8 @@
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A313" s="1" t="s">
-        <v>203</v>
+      <c r="A313" t="s">
+        <v>317</v>
       </c>
       <c r="B313">
         <v>589.52441409999994</v>
@@ -7582,8 +8069,8 @@
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A314" s="1" t="s">
-        <v>204</v>
+      <c r="A314" t="s">
+        <v>318</v>
       </c>
       <c r="B314">
         <v>596.07690430000002</v>
@@ -7602,8 +8089,8 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A315" s="1" t="s">
-        <v>205</v>
+      <c r="A315" t="s">
+        <v>319</v>
       </c>
       <c r="B315">
         <v>596.11663820000001</v>
@@ -7622,8 +8109,8 @@
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A316" s="1" t="s">
-        <v>206</v>
+      <c r="A316" t="s">
+        <v>320</v>
       </c>
       <c r="B316">
         <v>589.84155269999997</v>
@@ -7642,8 +8129,8 @@
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A317" s="1" t="s">
-        <v>207</v>
+      <c r="A317" t="s">
+        <v>321</v>
       </c>
       <c r="B317">
         <v>583.11053470000002</v>
@@ -7662,8 +8149,8 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A318" s="1" t="s">
-        <v>208</v>
+      <c r="A318" t="s">
+        <v>322</v>
       </c>
       <c r="B318">
         <v>580.98913570000002</v>
@@ -7682,8 +8169,8 @@
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A319" s="1" t="s">
-        <v>209</v>
+      <c r="A319" t="s">
+        <v>323</v>
       </c>
       <c r="B319">
         <v>579.56164550000005</v>
@@ -7702,8 +8189,8 @@
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A320" s="1" t="s">
-        <v>210</v>
+      <c r="A320" t="s">
+        <v>324</v>
       </c>
       <c r="B320">
         <v>586.80816649999997</v>
@@ -7722,8 +8209,8 @@
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A321" s="1" t="s">
-        <v>211</v>
+      <c r="A321" t="s">
+        <v>325</v>
       </c>
       <c r="B321">
         <v>590.18853760000002</v>
@@ -7742,8 +8229,8 @@
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A322" s="1" t="s">
-        <v>212</v>
+      <c r="A322" t="s">
+        <v>326</v>
       </c>
       <c r="B322">
         <v>583.51702880000005</v>
@@ -7762,8 +8249,8 @@
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A323" s="1" t="s">
-        <v>213</v>
+      <c r="A323" t="s">
+        <v>327</v>
       </c>
       <c r="B323">
         <v>584.36956789999999</v>
@@ -7782,8 +8269,8 @@
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A324" s="1" t="s">
-        <v>214</v>
+      <c r="A324" t="s">
+        <v>328</v>
       </c>
       <c r="B324">
         <v>575.44769289999999</v>
@@ -7802,8 +8289,8 @@
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A325" s="1" t="s">
-        <v>215</v>
+      <c r="A325" t="s">
+        <v>329</v>
       </c>
       <c r="B325">
         <v>576.3399048</v>
@@ -7822,8 +8309,8 @@
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A326" s="1" t="s">
-        <v>216</v>
+      <c r="A326" t="s">
+        <v>330</v>
       </c>
       <c r="B326">
         <v>577.1329346</v>
@@ -7842,8 +8329,8 @@
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A327" s="1" t="s">
-        <v>217</v>
+      <c r="A327" t="s">
+        <v>331</v>
       </c>
       <c r="B327">
         <v>587.6309814</v>
@@ -7862,8 +8349,8 @@
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A328" s="1" t="s">
-        <v>218</v>
+      <c r="A328" t="s">
+        <v>332</v>
       </c>
       <c r="B328">
         <v>586.50085449999995</v>
@@ -7882,8 +8369,8 @@
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A329" s="1" t="s">
-        <v>219</v>
+      <c r="A329" t="s">
+        <v>333</v>
       </c>
       <c r="B329">
         <v>592.38928220000003</v>
@@ -7902,8 +8389,8 @@
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A330" s="1" t="s">
-        <v>220</v>
+      <c r="A330" t="s">
+        <v>334</v>
       </c>
       <c r="B330">
         <v>597.81170650000001</v>
@@ -7922,8 +8409,8 @@
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A331" s="1" t="s">
-        <v>221</v>
+      <c r="A331" t="s">
+        <v>335</v>
       </c>
       <c r="B331">
         <v>601.17230219999999</v>
@@ -7942,8 +8429,8 @@
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A332" s="1" t="s">
-        <v>222</v>
+      <c r="A332" t="s">
+        <v>336</v>
       </c>
       <c r="B332">
         <v>604.45355219999999</v>
@@ -7962,8 +8449,8 @@
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A333" s="1" t="s">
-        <v>223</v>
+      <c r="A333" t="s">
+        <v>337</v>
       </c>
       <c r="B333">
         <v>602.68896480000001</v>
@@ -7982,8 +8469,8 @@
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A334" s="1" t="s">
-        <v>224</v>
+      <c r="A334" t="s">
+        <v>338</v>
       </c>
       <c r="B334">
         <v>594.16375730000004</v>
@@ -8002,8 +8489,8 @@
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A335" s="1" t="s">
-        <v>225</v>
+      <c r="A335" t="s">
+        <v>339</v>
       </c>
       <c r="B335">
         <v>599.26898189999997</v>
@@ -8022,8 +8509,8 @@
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A336" s="1" t="s">
-        <v>226</v>
+      <c r="A336" t="s">
+        <v>340</v>
       </c>
       <c r="B336">
         <v>596.58251949999999</v>
@@ -8042,8 +8529,8 @@
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A337" s="1" t="s">
-        <v>227</v>
+      <c r="A337" t="s">
+        <v>341</v>
       </c>
       <c r="B337">
         <v>599.78448490000005</v>
@@ -8062,8 +8549,8 @@
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A338" s="1" t="s">
-        <v>228</v>
+      <c r="A338" t="s">
+        <v>342</v>
       </c>
       <c r="B338">
         <v>596.59246829999995</v>
@@ -8082,8 +8569,8 @@
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A339" s="1" t="s">
-        <v>229</v>
+      <c r="A339" t="s">
+        <v>343</v>
       </c>
       <c r="B339">
         <v>592.57763669999997</v>
@@ -8102,8 +8589,8 @@
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A340" s="1" t="s">
-        <v>230</v>
+      <c r="A340" t="s">
+        <v>344</v>
       </c>
       <c r="B340">
         <v>596.55279540000004</v>
@@ -8122,8 +8609,8 @@
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A341" s="1" t="s">
-        <v>231</v>
+      <c r="A341" t="s">
+        <v>345</v>
       </c>
       <c r="B341">
         <v>598.97155759999998</v>
@@ -8142,8 +8629,8 @@
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A342" s="1" t="s">
-        <v>232</v>
+      <c r="A342" t="s">
+        <v>346</v>
       </c>
       <c r="B342">
         <v>601.05334470000003</v>
@@ -8162,8 +8649,8 @@
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A343" s="1" t="s">
-        <v>233</v>
+      <c r="A343" t="s">
+        <v>347</v>
       </c>
       <c r="B343">
         <v>595.55157469999995</v>
@@ -8182,8 +8669,8 @@
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A344" s="1" t="s">
-        <v>234</v>
+      <c r="A344" t="s">
+        <v>348</v>
       </c>
       <c r="B344">
         <v>599.59606929999995</v>
@@ -8202,8 +8689,8 @@
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A345" s="1" t="s">
-        <v>235</v>
+      <c r="A345" t="s">
+        <v>349</v>
       </c>
       <c r="B345">
         <v>600.05218509999997</v>
@@ -8222,8 +8709,8 @@
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A346" s="1" t="s">
-        <v>236</v>
+      <c r="A346" t="s">
+        <v>350</v>
       </c>
       <c r="B346">
         <v>598.1190186</v>
@@ -8242,8 +8729,8 @@
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A347" s="1" t="s">
-        <v>237</v>
+      <c r="A347" t="s">
+        <v>351</v>
       </c>
       <c r="B347">
         <v>604.43371579999996</v>
@@ -8262,8 +8749,8 @@
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A348" s="1" t="s">
-        <v>238</v>
+      <c r="A348" t="s">
+        <v>352</v>
       </c>
       <c r="B348">
         <v>604.40399170000001</v>
@@ -8282,8 +8769,8 @@
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A349" s="1" t="s">
-        <v>239</v>
+      <c r="A349" t="s">
+        <v>353</v>
       </c>
       <c r="B349">
         <v>606.17840579999995</v>
@@ -8302,8 +8789,8 @@
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A350" s="1" t="s">
-        <v>240</v>
+      <c r="A350" t="s">
+        <v>354</v>
       </c>
       <c r="B350">
         <v>607.60589600000003</v>
@@ -8322,8 +8809,8 @@
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A351" s="1" t="s">
-        <v>241</v>
+      <c r="A351" t="s">
+        <v>355</v>
       </c>
       <c r="B351">
         <v>605.07806400000004</v>
@@ -8342,8 +8829,8 @@
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A352" s="1" t="s">
-        <v>242</v>
+      <c r="A352" t="s">
+        <v>356</v>
       </c>
       <c r="B352">
         <v>594.72875980000003</v>
@@ -8362,8 +8849,8 @@
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A353" s="1" t="s">
-        <v>243</v>
+      <c r="A353" t="s">
+        <v>357</v>
       </c>
       <c r="B353">
         <v>592.02246090000006</v>
@@ -8382,8 +8869,8 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A354" s="1" t="s">
-        <v>244</v>
+      <c r="A354" t="s">
+        <v>358</v>
       </c>
       <c r="B354">
         <v>589.0782471</v>
@@ -8402,8 +8889,8 @@
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A355" s="1" t="s">
-        <v>245</v>
+      <c r="A355" t="s">
+        <v>359</v>
       </c>
       <c r="B355">
         <v>589.37567139999999</v>
@@ -8422,8 +8909,8 @@
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A356" s="1" t="s">
-        <v>246</v>
+      <c r="A356" t="s">
+        <v>360</v>
       </c>
       <c r="B356">
         <v>579.96807860000001</v>
@@ -8442,8 +8929,8 @@
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A357" s="1" t="s">
-        <v>247</v>
+      <c r="A357" t="s">
+        <v>361</v>
       </c>
       <c r="B357">
         <v>589.01879880000001</v>
@@ -8462,8 +8949,8 @@
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A358" s="1" t="s">
-        <v>248</v>
+      <c r="A358" t="s">
+        <v>362</v>
       </c>
       <c r="B358">
         <v>578.69921880000004</v>
@@ -8482,8 +8969,8 @@
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A359" s="1" t="s">
-        <v>249</v>
+      <c r="A359" t="s">
+        <v>363</v>
       </c>
       <c r="B359">
         <v>571.84924320000005</v>
@@ -8502,8 +8989,8 @@
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A360" s="1" t="s">
-        <v>250</v>
+      <c r="A360" t="s">
+        <v>364</v>
       </c>
       <c r="B360">
         <v>577.99536130000001</v>
@@ -8522,8 +9009,8 @@
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A361" s="1" t="s">
-        <v>251</v>
+      <c r="A361" t="s">
+        <v>365</v>
       </c>
       <c r="B361">
         <v>567.73535159999994</v>
@@ -8542,8 +9029,8 @@
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A362" s="1" t="s">
-        <v>252</v>
+      <c r="A362" t="s">
+        <v>366</v>
       </c>
       <c r="B362">
         <v>570.91735840000001</v>
@@ -8562,8 +9049,8 @@
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A363" s="1" t="s">
-        <v>253</v>
+      <c r="A363" t="s">
+        <v>367</v>
       </c>
       <c r="B363">
         <v>555.71069339999997</v>
@@ -8582,8 +9069,8 @@
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A364" s="1" t="s">
-        <v>254</v>
+      <c r="A364" t="s">
+        <v>368</v>
       </c>
       <c r="B364">
         <v>551.09112549999998</v>
@@ -8602,8 +9089,8 @@
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A365" s="1" t="s">
-        <v>255</v>
+      <c r="A365" t="s">
+        <v>369</v>
       </c>
       <c r="B365">
         <v>554.01556400000004</v>
@@ -8622,8 +9109,8 @@
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A366" s="1" t="s">
-        <v>256</v>
+      <c r="A366" t="s">
+        <v>370</v>
       </c>
       <c r="B366">
         <v>546.63018799999998</v>
@@ -8642,8 +9129,8 @@
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A367" s="1" t="s">
-        <v>257</v>
+      <c r="A367" t="s">
+        <v>371</v>
       </c>
       <c r="B367">
         <v>557.92126459999997</v>
@@ -8662,8 +9149,8 @@
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A368" s="1" t="s">
-        <v>258</v>
+      <c r="A368" t="s">
+        <v>372</v>
       </c>
       <c r="B368">
         <v>562.22363280000002</v>
@@ -8682,8 +9169,8 @@
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A369" s="1" t="s">
-        <v>259</v>
+      <c r="A369" t="s">
+        <v>373</v>
       </c>
       <c r="B369">
         <v>556.14685059999999</v>
@@ -8702,8 +9189,8 @@
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A370" s="1" t="s">
-        <v>260</v>
+      <c r="A370" t="s">
+        <v>374</v>
       </c>
       <c r="B370">
         <v>562.20379639999999</v>
@@ -8722,8 +9209,8 @@
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A371" s="1" t="s">
-        <v>261</v>
+      <c r="A371" t="s">
+        <v>375</v>
       </c>
       <c r="B371">
         <v>560.5780029</v>
@@ -8742,8 +9229,8 @@
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A372" s="1" t="s">
-        <v>262</v>
+      <c r="A372" t="s">
+        <v>376</v>
       </c>
       <c r="B372">
         <v>560.76293950000002</v>
@@ -8762,8 +9249,8 @@
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A373" s="1" t="s">
-        <v>263</v>
+      <c r="A373" t="s">
+        <v>377</v>
       </c>
       <c r="B373">
         <v>570.80535889999999</v>
@@ -8782,8 +9269,8 @@
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A374" s="1" t="s">
-        <v>264</v>
+      <c r="A374" t="s">
+        <v>378</v>
       </c>
       <c r="B374">
         <v>572.17749019999997</v>
@@ -8802,8 +9289,8 @@
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A375" s="1" t="s">
-        <v>265</v>
+      <c r="A375" t="s">
+        <v>379</v>
       </c>
       <c r="B375">
         <v>565.34667969999998</v>
@@ -8822,8 +9309,8 @@
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A376" s="1" t="s">
-        <v>266</v>
+      <c r="A376" t="s">
+        <v>380</v>
       </c>
       <c r="B376">
         <v>563.84527590000005</v>
@@ -8842,8 +9329,8 @@
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A377" s="1" t="s">
-        <v>267</v>
+      <c r="A377" t="s">
+        <v>381</v>
       </c>
       <c r="B377">
         <v>552.49041750000004</v>
@@ -8862,8 +9349,8 @@
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A378" s="1" t="s">
-        <v>268</v>
+      <c r="A378" t="s">
+        <v>382</v>
       </c>
       <c r="B378">
         <v>556.1991577</v>
@@ -8882,8 +9369,8 @@
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A379" s="1" t="s">
-        <v>269</v>
+      <c r="A379" t="s">
+        <v>383</v>
       </c>
       <c r="B379">
         <v>557.77008060000003</v>
@@ -8902,8 +9389,8 @@
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A380" s="1" t="s">
-        <v>270</v>
+      <c r="A380" t="s">
+        <v>384</v>
       </c>
       <c r="B380">
         <v>561.29992679999998</v>
@@ -8922,8 +9409,8 @@
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A381" s="1" t="s">
-        <v>271</v>
+      <c r="A381" t="s">
+        <v>385</v>
       </c>
       <c r="B381">
         <v>533.63854979999996</v>
@@ -8942,8 +9429,8 @@
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A382" s="1" t="s">
-        <v>272</v>
+      <c r="A382" t="s">
+        <v>386</v>
       </c>
       <c r="B382">
         <v>502.39779659999999</v>
@@ -8962,8 +9449,8 @@
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A383" s="1" t="s">
-        <v>273</v>
+      <c r="A383" t="s">
+        <v>387</v>
       </c>
       <c r="B383">
         <v>501.50292969999998</v>
@@ -8982,8 +9469,8 @@
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A384" s="1" t="s">
-        <v>274</v>
+      <c r="A384" t="s">
+        <v>388</v>
       </c>
       <c r="B384">
         <v>493.64801030000001</v>
@@ -9002,8 +9489,8 @@
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A385" s="1" t="s">
-        <v>275</v>
+      <c r="A385" t="s">
+        <v>389</v>
       </c>
       <c r="B385">
         <v>545.49060059999999</v>
@@ -9022,8 +9509,8 @@
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A386" s="1" t="s">
-        <v>276</v>
+      <c r="A386" t="s">
+        <v>390</v>
       </c>
       <c r="B386">
         <v>521.58770749999996</v>
@@ -9042,8 +9529,8 @@
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A387" s="1" t="s">
-        <v>277</v>
+      <c r="A387" t="s">
+        <v>391</v>
       </c>
       <c r="B387">
         <v>530.89428710000004</v>
@@ -9062,8 +9549,8 @@
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A388" s="1" t="s">
-        <v>278</v>
+      <c r="A388" t="s">
+        <v>392</v>
       </c>
       <c r="B388">
         <v>536.0447388</v>
@@ -9082,8 +9569,8 @@
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A389" s="1" t="s">
-        <v>279</v>
+      <c r="A389" t="s">
+        <v>393</v>
       </c>
       <c r="B389">
         <v>534.54333499999996</v>
@@ -9102,8 +9589,8 @@
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A390" s="1" t="s">
-        <v>280</v>
+      <c r="A390" t="s">
+        <v>394</v>
       </c>
       <c r="B390">
         <v>522.66149900000005</v>
@@ -9122,8 +9609,8 @@
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A391" s="1" t="s">
-        <v>281</v>
+      <c r="A391" t="s">
+        <v>395</v>
       </c>
       <c r="B391">
         <v>523.40722659999994</v>
@@ -9142,8 +9629,8 @@
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A392" s="1" t="s">
-        <v>282</v>
+      <c r="A392" t="s">
+        <v>396</v>
       </c>
       <c r="B392">
         <v>510.94873050000001</v>
@@ -9162,8 +9649,8 @@
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A393" s="1" t="s">
-        <v>283</v>
+      <c r="A393" t="s">
+        <v>397</v>
       </c>
       <c r="B393">
         <v>524.24249269999996</v>
@@ -9182,8 +9669,8 @@
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A394" s="1" t="s">
-        <v>284</v>
+      <c r="A394" t="s">
+        <v>398</v>
       </c>
       <c r="B394">
         <v>532.36584470000003</v>
@@ -9202,8 +9689,8 @@
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A395" s="1" t="s">
-        <v>285</v>
+      <c r="A395" t="s">
+        <v>399</v>
       </c>
       <c r="B395">
         <v>543.57159420000005</v>
@@ -9222,8 +9709,8 @@
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A396" s="1" t="s">
-        <v>286</v>
+      <c r="A396" t="s">
+        <v>400</v>
       </c>
       <c r="B396">
         <v>547.49908449999998</v>
@@ -9242,8 +9729,8 @@
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A397" s="1" t="s">
-        <v>287</v>
+      <c r="A397" t="s">
+        <v>401</v>
       </c>
       <c r="B397">
         <v>547.70782469999995</v>
@@ -9262,8 +9749,8 @@
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A398" s="1" t="s">
-        <v>288</v>
+      <c r="A398" t="s">
+        <v>402</v>
       </c>
       <c r="B398">
         <v>551.1580811</v>
@@ -9282,8 +9769,8 @@
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A399" s="1" t="s">
-        <v>289</v>
+      <c r="A399" t="s">
+        <v>403</v>
       </c>
       <c r="B399">
         <v>551.3768311</v>
@@ -9302,8 +9789,8 @@
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A400" s="1" t="s">
-        <v>290</v>
+      <c r="A400" t="s">
+        <v>404</v>
       </c>
       <c r="B400">
         <v>555.28436280000005</v>
@@ -9322,8 +9809,8 @@
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A401" s="1" t="s">
-        <v>291</v>
+      <c r="A401" t="s">
+        <v>405</v>
       </c>
       <c r="B401">
         <v>563.52709960000004</v>
@@ -9342,8 +9829,8 @@
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A402" s="1" t="s">
-        <v>292</v>
+      <c r="A402" t="s">
+        <v>406</v>
       </c>
       <c r="B402">
         <v>560.29559329999995</v>
@@ -9362,8 +9849,8 @@
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A403" s="1" t="s">
-        <v>293</v>
+      <c r="A403" t="s">
+        <v>407</v>
       </c>
       <c r="B403">
         <v>555.61248780000005</v>
@@ -9382,8 +9869,8 @@
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A404" s="1" t="s">
-        <v>294</v>
+      <c r="A404" t="s">
+        <v>408</v>
       </c>
       <c r="B404">
         <v>557.94909670000004</v>
@@ -9402,8 +9889,8 @@
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A405" s="1" t="s">
-        <v>295</v>
+      <c r="A405" t="s">
+        <v>409</v>
       </c>
       <c r="B405">
         <v>561.83679199999995</v>
@@ -9422,8 +9909,8 @@
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A406" s="1" t="s">
-        <v>296</v>
+      <c r="A406" t="s">
+        <v>410</v>
       </c>
       <c r="B406">
         <v>561.1209106</v>
@@ -9442,8 +9929,8 @@
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A407" s="1" t="s">
-        <v>297</v>
+      <c r="A407" t="s">
+        <v>411</v>
       </c>
       <c r="B407">
         <v>579.66455080000003</v>
@@ -9462,8 +9949,8 @@
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A408" s="1" t="s">
-        <v>298</v>
+      <c r="A408" t="s">
+        <v>412</v>
       </c>
       <c r="B408">
         <v>583.49261469999999</v>
@@ -9482,8 +9969,8 @@
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A409" s="1" t="s">
-        <v>299</v>
+      <c r="A409" t="s">
+        <v>413</v>
       </c>
       <c r="B409">
         <v>584.2383423</v>
@@ -9502,8 +9989,8 @@
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A410" s="1" t="s">
-        <v>300</v>
+      <c r="A410" t="s">
+        <v>414</v>
       </c>
       <c r="B410">
         <v>587.0919189</v>
@@ -9522,8 +10009,8 @@
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A411" s="1" t="s">
-        <v>301</v>
+      <c r="A411" t="s">
+        <v>415</v>
       </c>
       <c r="B411">
         <v>590.81054689999996</v>
@@ -9542,8 +10029,8 @@
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A412" s="1" t="s">
-        <v>302</v>
+      <c r="A412" t="s">
+        <v>416</v>
       </c>
       <c r="B412">
         <v>591.4568481</v>
@@ -9562,8 +10049,8 @@
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A413" s="1" t="s">
-        <v>303</v>
+      <c r="A413" t="s">
+        <v>417</v>
       </c>
       <c r="B413">
         <v>589.46826169999997</v>
@@ -9582,8 +10069,8 @@
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A414" s="1" t="s">
-        <v>304</v>
+      <c r="A414" t="s">
+        <v>418</v>
       </c>
       <c r="B414">
         <v>579.53527829999996</v>
@@ -9602,8 +10089,8 @@
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A415" s="1" t="s">
-        <v>305</v>
+      <c r="A415" t="s">
+        <v>419</v>
       </c>
       <c r="B415">
         <v>579.76397710000003</v>
@@ -9622,8 +10109,8 @@
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A416" s="1" t="s">
-        <v>306</v>
+      <c r="A416" t="s">
+        <v>420</v>
       </c>
       <c r="B416">
         <v>575.80664060000004</v>
@@ -9642,8 +10129,8 @@
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A417" s="1" t="s">
-        <v>307</v>
+      <c r="A417" t="s">
+        <v>421</v>
       </c>
       <c r="B417">
         <v>587.77801509999995</v>
@@ -9662,8 +10149,8 @@
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A418" s="1" t="s">
-        <v>308</v>
+      <c r="A418" t="s">
+        <v>422</v>
       </c>
       <c r="B418">
         <v>584.37750240000003</v>
@@ -9682,8 +10169,8 @@
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A419" s="1" t="s">
-        <v>309</v>
+      <c r="A419" t="s">
+        <v>423</v>
       </c>
       <c r="B419">
         <v>586.68426509999995</v>
@@ -9702,8 +10189,8 @@
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A420" s="1" t="s">
-        <v>310</v>
+      <c r="A420" t="s">
+        <v>424</v>
       </c>
       <c r="B420">
         <v>586.02807619999999</v>
@@ -9722,8 +10209,8 @@
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A421" s="1">
-        <v>45810</v>
+      <c r="A421" t="s">
+        <v>425</v>
       </c>
       <c r="B421">
         <v>589.32910159999994</v>
@@ -9742,8 +10229,8 @@
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A422" s="1">
-        <v>45811</v>
+      <c r="A422" t="s">
+        <v>426</v>
       </c>
       <c r="B422">
         <v>592.68981929999995</v>
@@ -9762,8 +10249,8 @@
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A423" s="1">
-        <v>45812</v>
+      <c r="A423" t="s">
+        <v>427</v>
       </c>
       <c r="B423">
         <v>592.53070070000001</v>
@@ -9782,8 +10269,8 @@
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A424" s="1">
-        <v>45813</v>
+      <c r="A424" t="s">
+        <v>428</v>
       </c>
       <c r="B424">
         <v>589.66711429999998</v>
@@ -9802,8 +10289,8 @@
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A425" s="1">
-        <v>45814</v>
+      <c r="A425" t="s">
+        <v>429</v>
       </c>
       <c r="B425">
         <v>595.72241210000004</v>
@@ -9822,8 +10309,8 @@
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A426" s="1">
-        <v>45817</v>
+      <c r="A426" t="s">
+        <v>430</v>
       </c>
       <c r="B426">
         <v>596.25933840000005</v>
@@ -9842,8 +10329,8 @@
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A427" s="1">
-        <v>45818</v>
+      <c r="A427" t="s">
+        <v>431</v>
       </c>
       <c r="B427">
         <v>599.63989260000005</v>
@@ -9862,8 +10349,8 @@
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A428" s="1">
-        <v>45819</v>
+      <c r="A428" t="s">
+        <v>432</v>
       </c>
       <c r="B428">
         <v>597.92974849999996</v>
@@ -9882,8 +10369,8 @@
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A429" s="1">
-        <v>45820</v>
+      <c r="A429" t="s">
+        <v>433</v>
       </c>
       <c r="B429">
         <v>600.30609130000005</v>
@@ -9902,8 +10389,8 @@
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A430" s="1">
-        <v>45821</v>
+      <c r="A430" t="s">
+        <v>434</v>
       </c>
       <c r="B430">
         <v>593.59460449999995</v>
@@ -9922,8 +10409,8 @@
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A431" s="1">
-        <v>45824</v>
+      <c r="A431" t="s">
+        <v>435</v>
       </c>
       <c r="B431">
         <v>599.2421875</v>
@@ -9942,8 +10429,8 @@
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A432" s="1">
-        <v>45825</v>
+      <c r="A432" t="s">
+        <v>436</v>
       </c>
       <c r="B432">
         <v>594.12164310000003</v>
@@ -9962,8 +10449,8 @@
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A433" s="1">
-        <v>45826</v>
+      <c r="A433" t="s">
+        <v>437</v>
       </c>
       <c r="B433">
         <v>594.03210449999995</v>
@@ -9982,8 +10469,8 @@
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A434" s="1">
-        <v>45828</v>
+      <c r="A434" t="s">
+        <v>438</v>
       </c>
       <c r="B434">
         <v>592.63696289999996</v>
@@ -10002,8 +10489,8 @@
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A435" s="1">
-        <v>45831</v>
+      <c r="A435" t="s">
+        <v>439</v>
       </c>
       <c r="B435">
         <v>598.49072269999999</v>
@@ -10022,8 +10509,8 @@
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A436" s="1">
-        <v>45832</v>
+      <c r="A436" t="s">
+        <v>440</v>
       </c>
       <c r="B436">
         <v>605.10241699999995</v>
@@ -10042,8 +10529,8 @@
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A437" s="1">
-        <v>45833</v>
+      <c r="A437" t="s">
+        <v>441</v>
       </c>
       <c r="B437">
         <v>605.4414673</v>
@@ -10062,8 +10549,8 @@
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A438" s="1">
-        <v>45834</v>
+      <c r="A438" t="s">
+        <v>442</v>
       </c>
       <c r="B438">
         <v>610.17834470000003</v>
@@ -10082,8 +10569,8 @@
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A439" s="1">
-        <v>45835</v>
+      <c r="A439" t="s">
+        <v>443</v>
       </c>
       <c r="B439">
         <v>613.20989989999998</v>
@@ -10102,8 +10589,8 @@
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A440" s="1">
-        <v>45838</v>
+      <c r="A440" t="s">
+        <v>444</v>
       </c>
       <c r="B440">
         <v>616.14178470000002</v>
@@ -10122,8 +10609,8 @@
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A441" s="1">
-        <v>45839</v>
+      <c r="A441" t="s">
+        <v>445</v>
       </c>
       <c r="B441">
         <v>615.94238280000002</v>
@@ -10142,8 +10629,8 @@
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A442" s="1">
-        <v>45840</v>
+      <c r="A442" t="s">
+        <v>446</v>
       </c>
       <c r="B442">
         <v>618.73461910000003</v>
@@ -10162,8 +10649,8 @@
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A443" s="1">
-        <v>45841</v>
+      <c r="A443" t="s">
+        <v>447</v>
       </c>
       <c r="B443">
         <v>623.61108400000001</v>
@@ -10182,8 +10669,8 @@
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A444" s="1">
-        <v>45845</v>
+      <c r="A444" t="s">
+        <v>448</v>
       </c>
       <c r="B444">
         <v>618.96398929999998</v>
@@ -10202,8 +10689,8 @@
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A445" s="1">
-        <v>45846</v>
+      <c r="A445" t="s">
+        <v>449</v>
       </c>
       <c r="B445">
         <v>618.62493900000004</v>
@@ -10222,8 +10709,8 @@
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A446" s="1">
-        <v>45847</v>
+      <c r="A446" t="s">
+        <v>450</v>
       </c>
       <c r="B446">
         <v>622.33459470000003</v>
@@ -10242,8 +10729,8 @@
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A447" s="1">
-        <v>45848</v>
+      <c r="A447" t="s">
+        <v>451</v>
       </c>
       <c r="B447">
         <v>624.0897827</v>
@@ -10262,8 +10749,8 @@
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A448" s="1">
-        <v>45849</v>
+      <c r="A448" t="s">
+        <v>452</v>
       </c>
       <c r="B448">
         <v>621.89581299999998</v>
@@ -10282,8 +10769,8 @@
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A449" s="1">
-        <v>45852</v>
+      <c r="A449" t="s">
+        <v>453</v>
       </c>
       <c r="B449">
         <v>623.08251949999999</v>
@@ -10300,11 +10787,11 @@
       <c r="F449">
         <v>1</v>
       </c>
-      <c r="K449" s="2"/>
+      <c r="K449" s="1"/>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A450" s="1">
-        <v>45853</v>
+      <c r="A450" t="s">
+        <v>454</v>
       </c>
       <c r="B450">
         <v>620.41992189999996</v>
@@ -10323,8 +10810,8 @@
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A451" s="1">
-        <v>45854</v>
+      <c r="A451" t="s">
+        <v>455</v>
       </c>
       <c r="B451">
         <v>622.49414060000004</v>
@@ -10343,8 +10830,8 @@
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A452" s="1">
-        <v>45855</v>
+      <c r="A452" t="s">
+        <v>456</v>
       </c>
       <c r="B452">
         <v>626.30358890000002</v>
@@ -10363,8 +10850,8 @@
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A453" s="1">
-        <v>45856</v>
+      <c r="A453" t="s">
+        <v>457</v>
       </c>
       <c r="B453">
         <v>625.84490970000002</v>
@@ -10383,8 +10870,8 @@
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A454" s="1">
-        <v>45859</v>
+      <c r="A454" t="s">
+        <v>458</v>
       </c>
       <c r="B454">
         <v>627.03161620000003</v>
@@ -10403,8 +10890,8 @@
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A455" s="1">
-        <v>45860</v>
+      <c r="A455" t="s">
+        <v>459</v>
       </c>
       <c r="B455">
         <v>627.12133789999996</v>
@@ -10423,8 +10910,8 @@
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A456" s="3">
-        <v>45861</v>
+      <c r="A456" t="s">
+        <v>460</v>
       </c>
       <c r="B456">
         <v>632.45660399999997</v>
@@ -10443,8 +10930,8 @@
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A457" s="3">
-        <v>45862</v>
+      <c r="A457" t="s">
+        <v>461</v>
       </c>
       <c r="B457">
         <v>632.66595459999996</v>
@@ -10463,8 +10950,8 @@
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A458" s="3">
-        <v>45863</v>
+      <c r="A458" t="s">
+        <v>462</v>
       </c>
       <c r="B458">
         <v>635.33856200000002</v>
@@ -10483,8 +10970,8 @@
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A459" s="3">
-        <v>45866</v>
+      <c r="A459" t="s">
+        <v>463</v>
       </c>
       <c r="B459">
         <v>635.17901610000001</v>
@@ -10503,8 +10990,8 @@
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A460" s="3">
-        <v>45867</v>
+      <c r="A460" t="s">
+        <v>464</v>
       </c>
       <c r="B460">
         <v>633.50366210000004</v>
@@ -10523,8 +11010,8 @@
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A461" s="3">
-        <v>45868</v>
+      <c r="A461" t="s">
+        <v>465</v>
       </c>
       <c r="B461">
         <v>632.70587160000002</v>
@@ -10543,8 +11030,8 @@
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A462" s="3">
-        <v>45869</v>
+      <c r="A462" t="s">
+        <v>466</v>
       </c>
       <c r="B462">
         <v>630.33245850000003</v>
@@ -10563,8 +11050,8 @@
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A463" s="3">
-        <v>45870</v>
+      <c r="A463" t="s">
+        <v>467</v>
       </c>
       <c r="B463">
         <v>620.00103760000002</v>
